--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2083" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C2056E-3191-4B11-8550-8AD1A27F41FC}"/>
+  <xr:revisionPtr revIDLastSave="2104" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C17D1B9F-C9CF-4AB0-90EA-74B4AAE2156B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15150" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="4" r:id="rId1"/>
@@ -3919,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5B8E15-43FE-4C4A-92A7-DA257208A78A}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -11609,7 +11609,7 @@
   <dimension ref="B1:AF37"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11783,32 +11783,32 @@
         <v>20190.49497</v>
       </c>
       <c r="R3" s="72">
-        <f>$I3-$Q$3</f>
+        <f>I3-$Q3</f>
         <v>-14040.49497</v>
       </c>
       <c r="S3" s="72">
-        <f t="shared" ref="S3:X3" si="0">$I3-$Q$3</f>
-        <v>-14040.49497</v>
+        <f t="shared" ref="S3:X18" si="0">J3-$Q3</f>
+        <v>-1740.4949699999997</v>
       </c>
       <c r="T3" s="72">
-        <f>$I3-$Q$3</f>
-        <v>-14040.49497</v>
+        <f t="shared" si="0"/>
+        <v>4409.5050300000003</v>
       </c>
       <c r="U3" s="72">
         <f t="shared" si="0"/>
-        <v>-14040.49497</v>
+        <v>10559.50503</v>
       </c>
       <c r="V3" s="72">
         <f t="shared" si="0"/>
-        <v>-14040.49497</v>
+        <v>127409.50503</v>
       </c>
       <c r="W3" s="72">
         <f t="shared" si="0"/>
-        <v>-14040.49497</v>
+        <v>22859.50503</v>
       </c>
       <c r="X3" s="72">
         <f t="shared" si="0"/>
-        <v>-14040.49497</v>
+        <v>1160609.5050300001</v>
       </c>
       <c r="Y3" s="72">
         <f>$E$29/$C$33*$I3*$D$29</f>
@@ -11820,27 +11820,27 @@
       </c>
       <c r="AA3" s="72">
         <f t="shared" ref="AA3:AF18" si="1">S3-$Y3</f>
-        <v>-16740.49497</v>
+        <v>-4440.4949699999997</v>
       </c>
       <c r="AB3" s="72">
         <f t="shared" si="1"/>
-        <v>-16740.49497</v>
+        <v>1709.5050300000003</v>
       </c>
       <c r="AC3" s="72">
         <f t="shared" si="1"/>
-        <v>-16740.49497</v>
+        <v>7859.5050300000003</v>
       </c>
       <c r="AD3" s="72">
         <f t="shared" si="1"/>
-        <v>-16740.49497</v>
+        <v>124709.50503</v>
       </c>
       <c r="AE3" s="72">
         <f t="shared" si="1"/>
-        <v>-16740.49497</v>
+        <v>20159.50503</v>
       </c>
       <c r="AF3" s="72">
         <f t="shared" si="1"/>
-        <v>-16740.49497</v>
+        <v>1157909.5050300001</v>
       </c>
     </row>
     <row r="4" spans="2:32" ht="15.75" thickBot="1">
@@ -11889,32 +11889,32 @@
         <v>19844.849969999996</v>
       </c>
       <c r="R4" s="72">
-        <f t="shared" ref="R4:X22" si="11">$I4-$Q$3</f>
-        <v>-14347.99497</v>
+        <f t="shared" ref="R4:R22" si="11">I4-$Q4</f>
+        <v>-14002.349969999996</v>
       </c>
       <c r="S4" s="72">
-        <f t="shared" si="11"/>
-        <v>-14347.99497</v>
+        <f t="shared" si="0"/>
+        <v>-2317.3499699999957</v>
       </c>
       <c r="T4" s="72">
-        <f t="shared" si="11"/>
-        <v>-14347.99497</v>
+        <f t="shared" si="0"/>
+        <v>3525.1500300000043</v>
       </c>
       <c r="U4" s="72">
-        <f t="shared" si="11"/>
-        <v>-14347.99497</v>
+        <f t="shared" si="0"/>
+        <v>9367.6500300000043</v>
       </c>
       <c r="V4" s="72">
-        <f t="shared" si="11"/>
-        <v>-14347.99497</v>
+        <f t="shared" si="0"/>
+        <v>120375.15003</v>
       </c>
       <c r="W4" s="72">
-        <f t="shared" si="11"/>
-        <v>-14347.99497</v>
+        <f t="shared" si="0"/>
+        <v>21052.650030000004</v>
       </c>
       <c r="X4" s="72">
-        <f t="shared" si="11"/>
-        <v>-14347.99497</v>
+        <f t="shared" si="0"/>
+        <v>1101915.1500299999</v>
       </c>
       <c r="Y4" s="72">
         <f t="shared" ref="Y4:Y22" si="12">$E$29/$C$33*$I4*$D$29</f>
@@ -11922,31 +11922,31 @@
       </c>
       <c r="Z4" s="72">
         <f t="shared" ref="Z4:Z22" si="13">R4-$Y4</f>
-        <v>-16912.99497</v>
+        <v>-16567.349969999996</v>
       </c>
       <c r="AA4" s="72">
         <f t="shared" si="1"/>
-        <v>-16912.99497</v>
+        <v>-4882.3499699999957</v>
       </c>
       <c r="AB4" s="72">
         <f t="shared" si="1"/>
-        <v>-16912.99497</v>
+        <v>960.15003000000434</v>
       </c>
       <c r="AC4" s="72">
         <f t="shared" si="1"/>
-        <v>-16912.99497</v>
+        <v>6802.6500300000043</v>
       </c>
       <c r="AD4" s="72">
         <f t="shared" si="1"/>
-        <v>-16912.99497</v>
+        <v>117810.15003</v>
       </c>
       <c r="AE4" s="72">
         <f t="shared" si="1"/>
-        <v>-16912.99497</v>
+        <v>18487.650030000004</v>
       </c>
       <c r="AF4" s="72">
         <f t="shared" si="1"/>
-        <v>-16912.99497</v>
+        <v>1099350.1500299999</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="15.75" thickBot="1">
@@ -12006,31 +12006,31 @@
       </c>
       <c r="R5" s="72">
         <f t="shared" si="11"/>
-        <v>-14655.49497</v>
+        <v>-13964.204969999999</v>
       </c>
       <c r="S5" s="72">
-        <f t="shared" si="11"/>
-        <v>-14655.49497</v>
+        <f t="shared" si="0"/>
+        <v>-2894.2049699999989</v>
       </c>
       <c r="T5" s="72">
-        <f t="shared" si="11"/>
-        <v>-14655.49497</v>
+        <f t="shared" si="0"/>
+        <v>2640.7950300000011</v>
       </c>
       <c r="U5" s="72">
-        <f t="shared" si="11"/>
-        <v>-14655.49497</v>
+        <f t="shared" si="0"/>
+        <v>8175.7950300000011</v>
       </c>
       <c r="V5" s="72">
-        <f t="shared" si="11"/>
-        <v>-14655.49497</v>
+        <f t="shared" si="0"/>
+        <v>113340.79503000001</v>
       </c>
       <c r="W5" s="72">
-        <f t="shared" si="11"/>
-        <v>-14655.49497</v>
+        <f t="shared" si="0"/>
+        <v>19245.795030000001</v>
       </c>
       <c r="X5" s="72">
-        <f t="shared" si="11"/>
-        <v>-14655.49497</v>
+        <f t="shared" si="0"/>
+        <v>1043220.79503</v>
       </c>
       <c r="Y5" s="72">
         <f t="shared" si="12"/>
@@ -12038,31 +12038,31 @@
       </c>
       <c r="Z5" s="72">
         <f t="shared" si="13"/>
-        <v>-17085.49497</v>
+        <v>-16394.204969999999</v>
       </c>
       <c r="AA5" s="72">
         <f t="shared" si="1"/>
-        <v>-17085.49497</v>
+        <v>-5324.2049699999989</v>
       </c>
       <c r="AB5" s="72">
         <f t="shared" si="1"/>
-        <v>-17085.49497</v>
+        <v>210.79503000000113</v>
       </c>
       <c r="AC5" s="72">
         <f t="shared" si="1"/>
-        <v>-17085.49497</v>
+        <v>5745.7950300000011</v>
       </c>
       <c r="AD5" s="72">
         <f t="shared" si="1"/>
-        <v>-17085.49497</v>
+        <v>110910.79503000001</v>
       </c>
       <c r="AE5" s="72">
         <f t="shared" si="1"/>
-        <v>-17085.49497</v>
+        <v>16815.795030000001</v>
       </c>
       <c r="AF5" s="72">
         <f t="shared" si="1"/>
-        <v>-17085.49497</v>
+        <v>1040790.79503</v>
       </c>
     </row>
     <row r="6" spans="2:32">
@@ -12122,31 +12122,31 @@
       </c>
       <c r="R6" s="72">
         <f t="shared" si="11"/>
-        <v>-14962.99497</v>
+        <v>-13926.059969999998</v>
       </c>
       <c r="S6" s="72">
-        <f t="shared" si="11"/>
-        <v>-14962.99497</v>
+        <f t="shared" si="0"/>
+        <v>-3471.0599699999984</v>
       </c>
       <c r="T6" s="72">
-        <f t="shared" si="11"/>
-        <v>-14962.99497</v>
+        <f t="shared" si="0"/>
+        <v>1756.4400300000016</v>
       </c>
       <c r="U6" s="72">
-        <f t="shared" si="11"/>
-        <v>-14962.99497</v>
+        <f t="shared" si="0"/>
+        <v>6983.9400300000016</v>
       </c>
       <c r="V6" s="72">
-        <f t="shared" si="11"/>
-        <v>-14962.99497</v>
+        <f t="shared" si="0"/>
+        <v>106306.44003</v>
       </c>
       <c r="W6" s="72">
-        <f t="shared" si="11"/>
-        <v>-14962.99497</v>
+        <f t="shared" si="0"/>
+        <v>17438.940030000002</v>
       </c>
       <c r="X6" s="72">
-        <f t="shared" si="11"/>
-        <v>-14962.99497</v>
+        <f t="shared" si="0"/>
+        <v>984526.44003000006</v>
       </c>
       <c r="Y6" s="72">
         <f t="shared" si="12"/>
@@ -12154,31 +12154,31 @@
       </c>
       <c r="Z6" s="72">
         <f t="shared" si="13"/>
-        <v>-17257.99497</v>
+        <v>-16221.059969999998</v>
       </c>
       <c r="AA6" s="72">
         <f t="shared" si="1"/>
-        <v>-17257.99497</v>
+        <v>-5766.0599699999984</v>
       </c>
       <c r="AB6" s="72">
         <f t="shared" si="1"/>
-        <v>-17257.99497</v>
+        <v>-538.55996999999843</v>
       </c>
       <c r="AC6" s="72">
         <f t="shared" si="1"/>
-        <v>-17257.99497</v>
+        <v>4688.9400300000016</v>
       </c>
       <c r="AD6" s="72">
         <f t="shared" si="1"/>
-        <v>-17257.99497</v>
+        <v>104011.44003</v>
       </c>
       <c r="AE6" s="72">
         <f t="shared" si="1"/>
-        <v>-17257.99497</v>
+        <v>15143.940030000002</v>
       </c>
       <c r="AF6" s="72">
         <f t="shared" si="1"/>
-        <v>-17257.99497</v>
+        <v>982231.44003000006</v>
       </c>
     </row>
     <row r="7" spans="2:32">
@@ -12238,31 +12238,31 @@
       </c>
       <c r="R7" s="72">
         <f t="shared" si="11"/>
-        <v>-15270.49497</v>
+        <v>-13887.914969999998</v>
       </c>
       <c r="S7" s="72">
-        <f t="shared" si="11"/>
-        <v>-15270.49497</v>
+        <f t="shared" si="0"/>
+        <v>-4047.914969999998</v>
       </c>
       <c r="T7" s="72">
-        <f t="shared" si="11"/>
-        <v>-15270.49497</v>
+        <f t="shared" si="0"/>
+        <v>872.08503000000201</v>
       </c>
       <c r="U7" s="72">
-        <f t="shared" si="11"/>
-        <v>-15270.49497</v>
+        <f t="shared" si="0"/>
+        <v>5792.085030000002</v>
       </c>
       <c r="V7" s="72">
-        <f t="shared" si="11"/>
-        <v>-15270.49497</v>
+        <f t="shared" si="0"/>
+        <v>99272.085030000002</v>
       </c>
       <c r="W7" s="72">
-        <f t="shared" si="11"/>
-        <v>-15270.49497</v>
+        <f t="shared" si="0"/>
+        <v>15632.085030000002</v>
       </c>
       <c r="X7" s="72">
-        <f t="shared" si="11"/>
-        <v>-15270.49497</v>
+        <f t="shared" si="0"/>
+        <v>925832.08502999996</v>
       </c>
       <c r="Y7" s="72">
         <f t="shared" si="12"/>
@@ -12270,31 +12270,31 @@
       </c>
       <c r="Z7" s="72">
         <f t="shared" si="13"/>
-        <v>-17430.49497</v>
+        <v>-16047.914969999998</v>
       </c>
       <c r="AA7" s="72">
         <f t="shared" si="1"/>
-        <v>-17430.49497</v>
+        <v>-6207.914969999998</v>
       </c>
       <c r="AB7" s="72">
         <f t="shared" si="1"/>
-        <v>-17430.49497</v>
+        <v>-1287.914969999998</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" si="1"/>
-        <v>-17430.49497</v>
+        <v>3632.085030000002</v>
       </c>
       <c r="AD7" s="72">
         <f t="shared" si="1"/>
-        <v>-17430.49497</v>
+        <v>97112.085030000002</v>
       </c>
       <c r="AE7" s="72">
         <f t="shared" si="1"/>
-        <v>-17430.49497</v>
+        <v>13472.085030000002</v>
       </c>
       <c r="AF7" s="72">
         <f t="shared" si="1"/>
-        <v>-17430.49497</v>
+        <v>923672.08502999996</v>
       </c>
     </row>
     <row r="8" spans="2:32">
@@ -12343,31 +12343,31 @@
       </c>
       <c r="R8" s="72">
         <f t="shared" si="11"/>
-        <v>-15577.99497</v>
+        <v>-13849.769969999998</v>
       </c>
       <c r="S8" s="72">
-        <f t="shared" si="11"/>
-        <v>-15577.99497</v>
+        <f t="shared" si="0"/>
+        <v>-4624.7699699999976</v>
       </c>
       <c r="T8" s="72">
-        <f t="shared" si="11"/>
-        <v>-15577.99497</v>
+        <f t="shared" si="0"/>
+        <v>-12.269969999997556</v>
       </c>
       <c r="U8" s="72">
-        <f t="shared" si="11"/>
-        <v>-15577.99497</v>
+        <f t="shared" si="0"/>
+        <v>4600.2300300000024</v>
       </c>
       <c r="V8" s="72">
-        <f t="shared" si="11"/>
-        <v>-15577.99497</v>
+        <f t="shared" si="0"/>
+        <v>92237.730030000006</v>
       </c>
       <c r="W8" s="72">
-        <f t="shared" si="11"/>
-        <v>-15577.99497</v>
+        <f t="shared" si="0"/>
+        <v>13825.230030000002</v>
       </c>
       <c r="X8" s="72">
-        <f t="shared" si="11"/>
-        <v>-15577.99497</v>
+        <f t="shared" si="0"/>
+        <v>867137.73002999998</v>
       </c>
       <c r="Y8" s="72">
         <f t="shared" si="12"/>
@@ -12375,31 +12375,31 @@
       </c>
       <c r="Z8" s="72">
         <f t="shared" si="13"/>
-        <v>-17602.99497</v>
+        <v>-15874.769969999998</v>
       </c>
       <c r="AA8" s="72">
         <f t="shared" si="1"/>
-        <v>-17602.99497</v>
+        <v>-6649.7699699999976</v>
       </c>
       <c r="AB8" s="72">
         <f t="shared" si="1"/>
-        <v>-17602.99497</v>
+        <v>-2037.2699699999976</v>
       </c>
       <c r="AC8" s="72">
         <f t="shared" si="1"/>
-        <v>-17602.99497</v>
+        <v>2575.2300300000024</v>
       </c>
       <c r="AD8" s="72">
         <f t="shared" si="1"/>
-        <v>-17602.99497</v>
+        <v>90212.730030000006</v>
       </c>
       <c r="AE8" s="72">
         <f t="shared" si="1"/>
-        <v>-17602.99497</v>
+        <v>11800.230030000002</v>
       </c>
       <c r="AF8" s="72">
         <f t="shared" si="1"/>
-        <v>-17602.99497</v>
+        <v>865112.73002999998</v>
       </c>
     </row>
     <row r="9" spans="2:32">
@@ -12460,31 +12460,31 @@
       </c>
       <c r="R9" s="72">
         <f t="shared" si="11"/>
-        <v>-15885.49497</v>
+        <v>-13811.624969999997</v>
       </c>
       <c r="S9" s="72">
-        <f t="shared" si="11"/>
-        <v>-15885.49497</v>
+        <f t="shared" si="0"/>
+        <v>-5201.6249699999971</v>
       </c>
       <c r="T9" s="72">
-        <f t="shared" si="11"/>
-        <v>-15885.49497</v>
+        <f t="shared" si="0"/>
+        <v>-896.62496999999712</v>
       </c>
       <c r="U9" s="72">
-        <f t="shared" si="11"/>
-        <v>-15885.49497</v>
+        <f t="shared" si="0"/>
+        <v>3408.3750300000029</v>
       </c>
       <c r="V9" s="72">
-        <f t="shared" si="11"/>
-        <v>-15885.49497</v>
+        <f t="shared" si="0"/>
+        <v>85203.375029999996</v>
       </c>
       <c r="W9" s="72">
-        <f t="shared" si="11"/>
-        <v>-15885.49497</v>
+        <f t="shared" si="0"/>
+        <v>12018.375030000003</v>
       </c>
       <c r="X9" s="72">
-        <f t="shared" si="11"/>
-        <v>-15885.49497</v>
+        <f t="shared" si="0"/>
+        <v>808443.37503</v>
       </c>
       <c r="Y9" s="72">
         <f t="shared" si="12"/>
@@ -12492,31 +12492,31 @@
       </c>
       <c r="Z9" s="72">
         <f t="shared" si="13"/>
-        <v>-17775.49497</v>
+        <v>-15701.624969999997</v>
       </c>
       <c r="AA9" s="72">
         <f t="shared" si="1"/>
-        <v>-17775.49497</v>
+        <v>-7091.6249699999971</v>
       </c>
       <c r="AB9" s="72">
         <f t="shared" si="1"/>
-        <v>-17775.49497</v>
+        <v>-2786.6249699999971</v>
       </c>
       <c r="AC9" s="72">
         <f t="shared" si="1"/>
-        <v>-17775.49497</v>
+        <v>1518.3750300000027</v>
       </c>
       <c r="AD9" s="72">
         <f t="shared" si="1"/>
-        <v>-17775.49497</v>
+        <v>83313.375029999996</v>
       </c>
       <c r="AE9" s="72">
         <f t="shared" si="1"/>
-        <v>-17775.49497</v>
+        <v>10128.375030000003</v>
       </c>
       <c r="AF9" s="72">
         <f t="shared" si="1"/>
-        <v>-17775.49497</v>
+        <v>806553.37503</v>
       </c>
     </row>
     <row r="10" spans="2:32">
@@ -12577,31 +12577,31 @@
       </c>
       <c r="R10" s="72">
         <f t="shared" si="11"/>
-        <v>-16192.99497</v>
+        <v>-13773.47997</v>
       </c>
       <c r="S10" s="72">
-        <f t="shared" si="11"/>
-        <v>-16192.99497</v>
+        <f t="shared" si="0"/>
+        <v>-5778.4799700000003</v>
       </c>
       <c r="T10" s="72">
-        <f t="shared" si="11"/>
-        <v>-16192.99497</v>
+        <f t="shared" si="0"/>
+        <v>-1780.9799700000003</v>
       </c>
       <c r="U10" s="72">
-        <f t="shared" si="11"/>
-        <v>-16192.99497</v>
+        <f t="shared" si="0"/>
+        <v>2216.5200299999997</v>
       </c>
       <c r="V10" s="72">
-        <f t="shared" si="11"/>
-        <v>-16192.99497</v>
+        <f t="shared" si="0"/>
+        <v>78169.02003</v>
       </c>
       <c r="W10" s="72">
-        <f t="shared" si="11"/>
-        <v>-16192.99497</v>
+        <f t="shared" si="0"/>
+        <v>10211.52003</v>
       </c>
       <c r="X10" s="72">
-        <f t="shared" si="11"/>
-        <v>-16192.99497</v>
+        <f t="shared" si="0"/>
+        <v>749749.02003000001</v>
       </c>
       <c r="Y10" s="72">
         <f t="shared" si="12"/>
@@ -12609,31 +12609,31 @@
       </c>
       <c r="Z10" s="72">
         <f t="shared" si="13"/>
-        <v>-17947.99497</v>
+        <v>-15528.47997</v>
       </c>
       <c r="AA10" s="72">
         <f t="shared" si="1"/>
-        <v>-17947.99497</v>
+        <v>-7533.4799700000003</v>
       </c>
       <c r="AB10" s="72">
         <f t="shared" si="1"/>
-        <v>-17947.99497</v>
+        <v>-3535.9799700000003</v>
       </c>
       <c r="AC10" s="72">
         <f t="shared" si="1"/>
-        <v>-17947.99497</v>
+        <v>461.52002999999968</v>
       </c>
       <c r="AD10" s="72">
         <f t="shared" si="1"/>
-        <v>-17947.99497</v>
+        <v>76414.02003</v>
       </c>
       <c r="AE10" s="72">
         <f t="shared" si="1"/>
-        <v>-17947.99497</v>
+        <v>8456.5200299999997</v>
       </c>
       <c r="AF10" s="72">
         <f t="shared" si="1"/>
-        <v>-17947.99497</v>
+        <v>747994.02003000001</v>
       </c>
     </row>
     <row r="11" spans="2:32">
@@ -12694,31 +12694,31 @@
       </c>
       <c r="R11" s="72">
         <f t="shared" si="11"/>
-        <v>-16500.49497</v>
+        <v>-13735.334969999996</v>
       </c>
       <c r="S11" s="72">
-        <f t="shared" si="11"/>
-        <v>-16500.49497</v>
+        <f t="shared" si="0"/>
+        <v>-6355.3349699999962</v>
       </c>
       <c r="T11" s="72">
-        <f t="shared" si="11"/>
-        <v>-16500.49497</v>
+        <f t="shared" si="0"/>
+        <v>-2665.3349699999962</v>
       </c>
       <c r="U11" s="72">
-        <f t="shared" si="11"/>
-        <v>-16500.49497</v>
+        <f t="shared" si="0"/>
+        <v>1024.6650300000038</v>
       </c>
       <c r="V11" s="72">
-        <f t="shared" si="11"/>
-        <v>-16500.49497</v>
+        <f t="shared" si="0"/>
+        <v>71134.665030000004</v>
       </c>
       <c r="W11" s="72">
-        <f t="shared" si="11"/>
-        <v>-16500.49497</v>
+        <f t="shared" si="0"/>
+        <v>8404.6650300000038</v>
       </c>
       <c r="X11" s="72">
-        <f t="shared" si="11"/>
-        <v>-16500.49497</v>
+        <f t="shared" si="0"/>
+        <v>691054.66503000003</v>
       </c>
       <c r="Y11" s="72">
         <f t="shared" si="12"/>
@@ -12726,31 +12726,31 @@
       </c>
       <c r="Z11" s="72">
         <f t="shared" si="13"/>
-        <v>-18120.49497</v>
+        <v>-15355.334969999996</v>
       </c>
       <c r="AA11" s="72">
         <f t="shared" si="1"/>
-        <v>-18120.49497</v>
+        <v>-7975.3349699999962</v>
       </c>
       <c r="AB11" s="72">
         <f t="shared" si="1"/>
-        <v>-18120.49497</v>
+        <v>-4285.3349699999962</v>
       </c>
       <c r="AC11" s="72">
         <f t="shared" si="1"/>
-        <v>-18120.49497</v>
+        <v>-595.33496999999625</v>
       </c>
       <c r="AD11" s="72">
         <f t="shared" si="1"/>
-        <v>-18120.49497</v>
+        <v>69514.665030000004</v>
       </c>
       <c r="AE11" s="72">
         <f t="shared" si="1"/>
-        <v>-18120.49497</v>
+        <v>6784.6650300000038</v>
       </c>
       <c r="AF11" s="72">
         <f t="shared" si="1"/>
-        <v>-18120.49497</v>
+        <v>689434.66503000003</v>
       </c>
     </row>
     <row r="12" spans="2:32">
@@ -12811,31 +12811,31 @@
       </c>
       <c r="R12" s="72">
         <f t="shared" si="11"/>
-        <v>-16807.99497</v>
+        <v>-13697.189969999999</v>
       </c>
       <c r="S12" s="72">
-        <f t="shared" si="11"/>
-        <v>-16807.99497</v>
+        <f t="shared" si="0"/>
+        <v>-6932.1899699999976</v>
       </c>
       <c r="T12" s="72">
-        <f t="shared" si="11"/>
-        <v>-16807.99497</v>
+        <f t="shared" si="0"/>
+        <v>-3549.6899699999976</v>
       </c>
       <c r="U12" s="72">
-        <f t="shared" si="11"/>
-        <v>-16807.99497</v>
+        <f t="shared" si="0"/>
+        <v>-167.18996999999581</v>
       </c>
       <c r="V12" s="72">
-        <f t="shared" si="11"/>
-        <v>-16807.99497</v>
+        <f t="shared" si="0"/>
+        <v>64100.310030000015</v>
       </c>
       <c r="W12" s="72">
-        <f t="shared" si="11"/>
-        <v>-16807.99497</v>
+        <f t="shared" si="0"/>
+        <v>6597.8100300000042</v>
       </c>
       <c r="X12" s="72">
-        <f t="shared" si="11"/>
-        <v>-16807.99497</v>
+        <f t="shared" si="0"/>
+        <v>632360.31003000017</v>
       </c>
       <c r="Y12" s="72">
         <f t="shared" si="12"/>
@@ -12843,31 +12843,31 @@
       </c>
       <c r="Z12" s="72">
         <f t="shared" si="13"/>
-        <v>-18292.99497</v>
+        <v>-15182.189969999999</v>
       </c>
       <c r="AA12" s="72">
         <f t="shared" si="1"/>
-        <v>-18292.99497</v>
+        <v>-8417.1899699999976</v>
       </c>
       <c r="AB12" s="72">
         <f t="shared" si="1"/>
-        <v>-18292.99497</v>
+        <v>-5034.6899699999976</v>
       </c>
       <c r="AC12" s="72">
         <f t="shared" si="1"/>
-        <v>-18292.99497</v>
+        <v>-1652.189969999996</v>
       </c>
       <c r="AD12" s="72">
         <f t="shared" si="1"/>
-        <v>-18292.99497</v>
+        <v>62615.310030000015</v>
       </c>
       <c r="AE12" s="72">
         <f t="shared" si="1"/>
-        <v>-18292.99497</v>
+        <v>5112.8100300000042</v>
       </c>
       <c r="AF12" s="72">
         <f t="shared" si="1"/>
-        <v>-18292.99497</v>
+        <v>630875.31003000017</v>
       </c>
     </row>
     <row r="13" spans="2:32">
@@ -12927,31 +12927,31 @@
       </c>
       <c r="R13" s="72">
         <f t="shared" si="11"/>
-        <v>-17115.49497</v>
+        <v>-13659.044969999999</v>
       </c>
       <c r="S13" s="72">
-        <f t="shared" si="11"/>
-        <v>-17115.49497</v>
+        <f t="shared" si="0"/>
+        <v>-7509.044969999999</v>
       </c>
       <c r="T13" s="72">
-        <f t="shared" si="11"/>
-        <v>-17115.49497</v>
+        <f t="shared" si="0"/>
+        <v>-4434.044969999999</v>
       </c>
       <c r="U13" s="72">
-        <f t="shared" si="11"/>
-        <v>-17115.49497</v>
+        <f t="shared" si="0"/>
+        <v>-1359.044969999999</v>
       </c>
       <c r="V13" s="72">
-        <f t="shared" si="11"/>
-        <v>-17115.49497</v>
+        <f t="shared" si="0"/>
+        <v>57065.955029999997</v>
       </c>
       <c r="W13" s="72">
-        <f t="shared" si="11"/>
-        <v>-17115.49497</v>
+        <f t="shared" si="0"/>
+        <v>4790.955030000001</v>
       </c>
       <c r="X13" s="72">
-        <f t="shared" si="11"/>
-        <v>-17115.49497</v>
+        <f t="shared" si="0"/>
+        <v>573665.95502999995</v>
       </c>
       <c r="Y13" s="72">
         <f t="shared" si="12"/>
@@ -12959,31 +12959,31 @@
       </c>
       <c r="Z13" s="72">
         <f t="shared" si="13"/>
-        <v>-18465.49497</v>
+        <v>-15009.044969999999</v>
       </c>
       <c r="AA13" s="72">
         <f t="shared" si="1"/>
-        <v>-18465.49497</v>
+        <v>-8859.044969999999</v>
       </c>
       <c r="AB13" s="72">
         <f t="shared" si="1"/>
-        <v>-18465.49497</v>
+        <v>-5784.044969999999</v>
       </c>
       <c r="AC13" s="72">
         <f t="shared" si="1"/>
-        <v>-18465.49497</v>
+        <v>-2709.044969999999</v>
       </c>
       <c r="AD13" s="72">
         <f t="shared" si="1"/>
-        <v>-18465.49497</v>
+        <v>55715.955029999997</v>
       </c>
       <c r="AE13" s="72">
         <f t="shared" si="1"/>
-        <v>-18465.49497</v>
+        <v>3440.955030000001</v>
       </c>
       <c r="AF13" s="72">
         <f t="shared" si="1"/>
-        <v>-18465.49497</v>
+        <v>572315.95502999995</v>
       </c>
     </row>
     <row r="14" spans="2:32">
@@ -13044,31 +13044,31 @@
       </c>
       <c r="R14" s="72">
         <f t="shared" si="11"/>
-        <v>-17422.99497</v>
+        <v>-13620.899969999999</v>
       </c>
       <c r="S14" s="72">
-        <f t="shared" si="11"/>
-        <v>-17422.99497</v>
+        <f t="shared" si="0"/>
+        <v>-8085.8999699999986</v>
       </c>
       <c r="T14" s="72">
-        <f t="shared" si="11"/>
-        <v>-17422.99497</v>
+        <f t="shared" si="0"/>
+        <v>-5318.3999699999986</v>
       </c>
       <c r="U14" s="72">
-        <f t="shared" si="11"/>
-        <v>-17422.99497</v>
+        <f t="shared" si="0"/>
+        <v>-2550.8999699999986</v>
       </c>
       <c r="V14" s="72">
-        <f t="shared" si="11"/>
-        <v>-17422.99497</v>
+        <f t="shared" si="0"/>
+        <v>50031.600030000001</v>
       </c>
       <c r="W14" s="72">
-        <f t="shared" si="11"/>
-        <v>-17422.99497</v>
+        <f t="shared" si="0"/>
+        <v>2984.1000300000014</v>
       </c>
       <c r="X14" s="72">
-        <f t="shared" si="11"/>
-        <v>-17422.99497</v>
+        <f t="shared" si="0"/>
+        <v>514971.60002999997</v>
       </c>
       <c r="Y14" s="72">
         <f t="shared" si="12"/>
@@ -13076,31 +13076,31 @@
       </c>
       <c r="Z14" s="72">
         <f t="shared" si="13"/>
-        <v>-18637.99497</v>
+        <v>-14835.899969999999</v>
       </c>
       <c r="AA14" s="72">
         <f t="shared" si="1"/>
-        <v>-18637.99497</v>
+        <v>-9300.8999699999986</v>
       </c>
       <c r="AB14" s="72">
         <f t="shared" si="1"/>
-        <v>-18637.99497</v>
+        <v>-6533.3999699999986</v>
       </c>
       <c r="AC14" s="72">
         <f t="shared" si="1"/>
-        <v>-18637.99497</v>
+        <v>-3765.8999699999986</v>
       </c>
       <c r="AD14" s="72">
         <f t="shared" si="1"/>
-        <v>-18637.99497</v>
+        <v>48816.600030000001</v>
       </c>
       <c r="AE14" s="72">
         <f t="shared" si="1"/>
-        <v>-18637.99497</v>
+        <v>1769.1000300000014</v>
       </c>
       <c r="AF14" s="72">
         <f t="shared" si="1"/>
-        <v>-18637.99497</v>
+        <v>513756.60002999997</v>
       </c>
     </row>
     <row r="15" spans="2:32">
@@ -13161,31 +13161,31 @@
       </c>
       <c r="R15" s="72">
         <f t="shared" si="11"/>
-        <v>-17730.49497</v>
+        <v>-13582.754969999998</v>
       </c>
       <c r="S15" s="72">
-        <f t="shared" si="11"/>
-        <v>-17730.49497</v>
+        <f t="shared" si="0"/>
+        <v>-8662.7549699999981</v>
       </c>
       <c r="T15" s="72">
-        <f t="shared" si="11"/>
-        <v>-17730.49497</v>
+        <f t="shared" si="0"/>
+        <v>-6202.7549699999981</v>
       </c>
       <c r="U15" s="72">
-        <f t="shared" si="11"/>
-        <v>-17730.49497</v>
+        <f t="shared" si="0"/>
+        <v>-3742.7549699999981</v>
       </c>
       <c r="V15" s="72">
-        <f t="shared" si="11"/>
-        <v>-17730.49497</v>
+        <f t="shared" si="0"/>
+        <v>42997.245030000005</v>
       </c>
       <c r="W15" s="72">
-        <f t="shared" si="11"/>
-        <v>-17730.49497</v>
+        <f t="shared" si="0"/>
+        <v>1177.2450300000019</v>
       </c>
       <c r="X15" s="72">
-        <f t="shared" si="11"/>
-        <v>-17730.49497</v>
+        <f t="shared" si="0"/>
+        <v>456277.24502999999</v>
       </c>
       <c r="Y15" s="72">
         <f t="shared" si="12"/>
@@ -13193,31 +13193,31 @@
       </c>
       <c r="Z15" s="72">
         <f t="shared" si="13"/>
-        <v>-18810.49497</v>
+        <v>-14662.754969999998</v>
       </c>
       <c r="AA15" s="72">
         <f t="shared" si="1"/>
-        <v>-18810.49497</v>
+        <v>-9742.7549699999981</v>
       </c>
       <c r="AB15" s="72">
         <f t="shared" si="1"/>
-        <v>-18810.49497</v>
+        <v>-7282.7549699999981</v>
       </c>
       <c r="AC15" s="72">
         <f t="shared" si="1"/>
-        <v>-18810.49497</v>
+        <v>-4822.7549699999981</v>
       </c>
       <c r="AD15" s="72">
         <f t="shared" si="1"/>
-        <v>-18810.49497</v>
+        <v>41917.245030000005</v>
       </c>
       <c r="AE15" s="72">
         <f t="shared" si="1"/>
-        <v>-18810.49497</v>
+        <v>97.245030000001861</v>
       </c>
       <c r="AF15" s="72">
         <f t="shared" si="1"/>
-        <v>-18810.49497</v>
+        <v>455197.24502999999</v>
       </c>
     </row>
     <row r="16" spans="2:32">
@@ -13278,31 +13278,31 @@
       </c>
       <c r="R16" s="72">
         <f t="shared" si="11"/>
-        <v>-18037.99497</v>
+        <v>-13544.609969999998</v>
       </c>
       <c r="S16" s="72">
-        <f t="shared" si="11"/>
-        <v>-18037.99497</v>
+        <f t="shared" si="0"/>
+        <v>-9239.6099699999977</v>
       </c>
       <c r="T16" s="72">
-        <f t="shared" si="11"/>
-        <v>-18037.99497</v>
+        <f t="shared" si="0"/>
+        <v>-7087.1099699999977</v>
       </c>
       <c r="U16" s="72">
-        <f t="shared" si="11"/>
-        <v>-18037.99497</v>
+        <f t="shared" si="0"/>
+        <v>-4934.6099699999977</v>
       </c>
       <c r="V16" s="72">
-        <f t="shared" si="11"/>
-        <v>-18037.99497</v>
+        <f t="shared" si="0"/>
+        <v>35962.890030000002</v>
       </c>
       <c r="W16" s="72">
-        <f t="shared" si="11"/>
-        <v>-18037.99497</v>
+        <f t="shared" si="0"/>
+        <v>-629.6099699999977</v>
       </c>
       <c r="X16" s="72">
-        <f t="shared" si="11"/>
-        <v>-18037.99497</v>
+        <f t="shared" si="0"/>
+        <v>397582.89003000001</v>
       </c>
       <c r="Y16" s="72">
         <f t="shared" si="12"/>
@@ -13310,31 +13310,31 @@
       </c>
       <c r="Z16" s="72">
         <f t="shared" si="13"/>
-        <v>-18982.99497</v>
+        <v>-14489.609969999998</v>
       </c>
       <c r="AA16" s="72">
         <f t="shared" si="1"/>
-        <v>-18982.99497</v>
+        <v>-10184.609969999998</v>
       </c>
       <c r="AB16" s="72">
         <f t="shared" si="1"/>
-        <v>-18982.99497</v>
+        <v>-8032.1099699999977</v>
       </c>
       <c r="AC16" s="72">
         <f t="shared" si="1"/>
-        <v>-18982.99497</v>
+        <v>-5879.6099699999977</v>
       </c>
       <c r="AD16" s="72">
         <f t="shared" si="1"/>
-        <v>-18982.99497</v>
+        <v>35017.890030000002</v>
       </c>
       <c r="AE16" s="72">
         <f t="shared" si="1"/>
-        <v>-18982.99497</v>
+        <v>-1574.6099699999977</v>
       </c>
       <c r="AF16" s="72">
         <f t="shared" si="1"/>
-        <v>-18982.99497</v>
+        <v>396637.89003000001</v>
       </c>
     </row>
     <row r="17" spans="2:32">
@@ -13395,31 +13395,31 @@
       </c>
       <c r="R17" s="72">
         <f t="shared" si="11"/>
-        <v>-18345.49497</v>
+        <v>-13506.464969999999</v>
       </c>
       <c r="S17" s="72">
-        <f t="shared" si="11"/>
-        <v>-18345.49497</v>
+        <f t="shared" si="0"/>
+        <v>-9816.4649699999991</v>
       </c>
       <c r="T17" s="72">
-        <f t="shared" si="11"/>
-        <v>-18345.49497</v>
+        <f t="shared" si="0"/>
+        <v>-7971.4649699999991</v>
       </c>
       <c r="U17" s="72">
-        <f t="shared" si="11"/>
-        <v>-18345.49497</v>
+        <f t="shared" si="0"/>
+        <v>-6126.4649699999991</v>
       </c>
       <c r="V17" s="72">
-        <f t="shared" si="11"/>
-        <v>-18345.49497</v>
+        <f t="shared" si="0"/>
+        <v>28928.535029999999</v>
       </c>
       <c r="W17" s="72">
-        <f t="shared" si="11"/>
-        <v>-18345.49497</v>
+        <f t="shared" si="0"/>
+        <v>-2436.4649699999991</v>
       </c>
       <c r="X17" s="72">
-        <f t="shared" si="11"/>
-        <v>-18345.49497</v>
+        <f t="shared" si="0"/>
+        <v>338888.53503000003</v>
       </c>
       <c r="Y17" s="72">
         <f t="shared" si="12"/>
@@ -13427,31 +13427,31 @@
       </c>
       <c r="Z17" s="72">
         <f t="shared" si="13"/>
-        <v>-19155.49497</v>
+        <v>-14316.464969999999</v>
       </c>
       <c r="AA17" s="72">
         <f t="shared" si="1"/>
-        <v>-19155.49497</v>
+        <v>-10626.464969999999</v>
       </c>
       <c r="AB17" s="72">
         <f t="shared" si="1"/>
-        <v>-19155.49497</v>
+        <v>-8781.4649699999991</v>
       </c>
       <c r="AC17" s="72">
         <f t="shared" si="1"/>
-        <v>-19155.49497</v>
+        <v>-6936.4649699999991</v>
       </c>
       <c r="AD17" s="72">
         <f t="shared" si="1"/>
-        <v>-19155.49497</v>
+        <v>28118.535029999999</v>
       </c>
       <c r="AE17" s="72">
         <f t="shared" si="1"/>
-        <v>-19155.49497</v>
+        <v>-3246.4649699999991</v>
       </c>
       <c r="AF17" s="72">
         <f t="shared" si="1"/>
-        <v>-19155.49497</v>
+        <v>338078.53503000003</v>
       </c>
     </row>
     <row r="18" spans="2:32">
@@ -13512,31 +13512,31 @@
       </c>
       <c r="R18" s="72">
         <f t="shared" si="11"/>
-        <v>-18652.99497</v>
+        <v>-13468.319969999999</v>
       </c>
       <c r="S18" s="72">
-        <f t="shared" si="11"/>
-        <v>-18652.99497</v>
+        <f t="shared" si="0"/>
+        <v>-10393.319969999999</v>
       </c>
       <c r="T18" s="72">
-        <f t="shared" si="11"/>
-        <v>-18652.99497</v>
+        <f t="shared" si="0"/>
+        <v>-8855.8199699999986</v>
       </c>
       <c r="U18" s="72">
-        <f t="shared" si="11"/>
-        <v>-18652.99497</v>
+        <f t="shared" si="0"/>
+        <v>-7318.3199699999986</v>
       </c>
       <c r="V18" s="72">
-        <f t="shared" si="11"/>
-        <v>-18652.99497</v>
+        <f t="shared" si="0"/>
+        <v>21894.180030000003</v>
       </c>
       <c r="W18" s="72">
-        <f t="shared" si="11"/>
-        <v>-18652.99497</v>
+        <f t="shared" si="0"/>
+        <v>-4243.3199699999986</v>
       </c>
       <c r="X18" s="72">
-        <f t="shared" si="11"/>
-        <v>-18652.99497</v>
+        <f t="shared" si="0"/>
+        <v>280194.18002999999</v>
       </c>
       <c r="Y18" s="72">
         <f t="shared" si="12"/>
@@ -13544,31 +13544,31 @@
       </c>
       <c r="Z18" s="72">
         <f t="shared" si="13"/>
-        <v>-19327.99497</v>
+        <v>-14143.319969999999</v>
       </c>
       <c r="AA18" s="72">
         <f t="shared" si="1"/>
-        <v>-19327.99497</v>
+        <v>-11068.319969999999</v>
       </c>
       <c r="AB18" s="72">
         <f t="shared" si="1"/>
-        <v>-19327.99497</v>
+        <v>-9530.8199699999986</v>
       </c>
       <c r="AC18" s="72">
         <f t="shared" si="1"/>
-        <v>-19327.99497</v>
+        <v>-7993.3199699999986</v>
       </c>
       <c r="AD18" s="72">
         <f t="shared" si="1"/>
-        <v>-19327.99497</v>
+        <v>21219.180030000003</v>
       </c>
       <c r="AE18" s="72">
         <f t="shared" si="1"/>
-        <v>-19327.99497</v>
+        <v>-4918.3199699999986</v>
       </c>
       <c r="AF18" s="72">
         <f t="shared" si="1"/>
-        <v>-19327.99497</v>
+        <v>279519.18002999999</v>
       </c>
     </row>
     <row r="19" spans="2:32">
@@ -13630,31 +13630,31 @@
       </c>
       <c r="R19" s="72">
         <f t="shared" si="11"/>
-        <v>-18960.49497</v>
+        <v>-13430.174969999998</v>
       </c>
       <c r="S19" s="72">
-        <f t="shared" si="11"/>
-        <v>-18960.49497</v>
+        <f t="shared" ref="S19:S22" si="15">J19-$Q19</f>
+        <v>-10970.174969999998</v>
       </c>
       <c r="T19" s="72">
-        <f t="shared" si="11"/>
-        <v>-18960.49497</v>
+        <f t="shared" ref="T19:T22" si="16">K19-$Q19</f>
+        <v>-9740.1749699999982</v>
       </c>
       <c r="U19" s="72">
-        <f t="shared" si="11"/>
-        <v>-18960.49497</v>
+        <f t="shared" ref="U19:U22" si="17">L19-$Q19</f>
+        <v>-8510.1749699999982</v>
       </c>
       <c r="V19" s="72">
-        <f t="shared" si="11"/>
-        <v>-18960.49497</v>
+        <f t="shared" ref="V19:V22" si="18">M19-$Q19</f>
+        <v>14859.825030000002</v>
       </c>
       <c r="W19" s="72">
-        <f t="shared" si="11"/>
-        <v>-18960.49497</v>
+        <f t="shared" ref="W19:W22" si="19">N19-$Q19</f>
+        <v>-6050.1749699999982</v>
       </c>
       <c r="X19" s="72">
-        <f t="shared" si="11"/>
-        <v>-18960.49497</v>
+        <f t="shared" ref="X19:X22" si="20">O19-$Q19</f>
+        <v>221499.82503000001</v>
       </c>
       <c r="Y19" s="72">
         <f t="shared" si="12"/>
@@ -13662,31 +13662,31 @@
       </c>
       <c r="Z19" s="72">
         <f t="shared" si="13"/>
-        <v>-19500.49497</v>
+        <v>-13970.174969999998</v>
       </c>
       <c r="AA19" s="72">
-        <f t="shared" ref="AA19:AA22" si="15">S19-$Y19</f>
-        <v>-19500.49497</v>
+        <f t="shared" ref="AA19:AA22" si="21">S19-$Y19</f>
+        <v>-11510.174969999998</v>
       </c>
       <c r="AB19" s="72">
-        <f t="shared" ref="AB19:AB22" si="16">T19-$Y19</f>
-        <v>-19500.49497</v>
+        <f t="shared" ref="AB19:AB22" si="22">T19-$Y19</f>
+        <v>-10280.174969999998</v>
       </c>
       <c r="AC19" s="72">
-        <f t="shared" ref="AC19:AC22" si="17">U19-$Y19</f>
-        <v>-19500.49497</v>
+        <f t="shared" ref="AC19:AC22" si="23">U19-$Y19</f>
+        <v>-9050.1749699999982</v>
       </c>
       <c r="AD19" s="72">
-        <f t="shared" ref="AD19:AD22" si="18">V19-$Y19</f>
-        <v>-19500.49497</v>
+        <f t="shared" ref="AD19:AD22" si="24">V19-$Y19</f>
+        <v>14319.825030000002</v>
       </c>
       <c r="AE19" s="72">
-        <f t="shared" ref="AE19:AE22" si="19">W19-$Y19</f>
-        <v>-19500.49497</v>
+        <f t="shared" ref="AE19:AE22" si="25">W19-$Y19</f>
+        <v>-6590.1749699999982</v>
       </c>
       <c r="AF19" s="72">
-        <f t="shared" ref="AF19:AF22" si="20">X19-$Y19</f>
-        <v>-19500.49497</v>
+        <f t="shared" ref="AF19:AF22" si="26">X19-$Y19</f>
+        <v>220959.82503000001</v>
       </c>
     </row>
     <row r="20" spans="2:32">
@@ -13747,31 +13747,31 @@
       </c>
       <c r="R20" s="72">
         <f t="shared" si="11"/>
-        <v>-19267.99497</v>
+        <v>-13392.029969999998</v>
       </c>
       <c r="S20" s="72">
-        <f t="shared" si="11"/>
-        <v>-19267.99497</v>
+        <f t="shared" si="15"/>
+        <v>-11547.029969999998</v>
       </c>
       <c r="T20" s="72">
-        <f t="shared" si="11"/>
-        <v>-19267.99497</v>
+        <f t="shared" si="16"/>
+        <v>-10624.529969999998</v>
       </c>
       <c r="U20" s="72">
-        <f t="shared" si="11"/>
-        <v>-19267.99497</v>
+        <f t="shared" si="17"/>
+        <v>-9702.0299699999978</v>
       </c>
       <c r="V20" s="72">
-        <f t="shared" si="11"/>
-        <v>-19267.99497</v>
+        <f t="shared" si="18"/>
+        <v>7825.4700300000022</v>
       </c>
       <c r="W20" s="72">
-        <f t="shared" si="11"/>
-        <v>-19267.99497</v>
+        <f t="shared" si="19"/>
+        <v>-7857.0299699999978</v>
       </c>
       <c r="X20" s="72">
-        <f t="shared" si="11"/>
-        <v>-19267.99497</v>
+        <f t="shared" si="20"/>
+        <v>162805.47003</v>
       </c>
       <c r="Y20" s="72">
         <f t="shared" si="12"/>
@@ -13779,31 +13779,31 @@
       </c>
       <c r="Z20" s="72">
         <f t="shared" si="13"/>
-        <v>-19672.99497</v>
+        <v>-13797.029969999998</v>
       </c>
       <c r="AA20" s="72">
-        <f t="shared" si="15"/>
-        <v>-19672.99497</v>
+        <f t="shared" si="21"/>
+        <v>-11952.029969999998</v>
       </c>
       <c r="AB20" s="72">
-        <f t="shared" si="16"/>
-        <v>-19672.99497</v>
+        <f t="shared" si="22"/>
+        <v>-11029.529969999998</v>
       </c>
       <c r="AC20" s="72">
-        <f t="shared" si="17"/>
-        <v>-19672.99497</v>
+        <f t="shared" si="23"/>
+        <v>-10107.029969999998</v>
       </c>
       <c r="AD20" s="72">
-        <f t="shared" si="18"/>
-        <v>-19672.99497</v>
+        <f t="shared" si="24"/>
+        <v>7420.4700300000022</v>
       </c>
       <c r="AE20" s="72">
-        <f t="shared" si="19"/>
-        <v>-19672.99497</v>
+        <f t="shared" si="25"/>
+        <v>-8262.0299699999978</v>
       </c>
       <c r="AF20" s="72">
-        <f t="shared" si="20"/>
-        <v>-19672.99497</v>
+        <f t="shared" si="26"/>
+        <v>162400.47003</v>
       </c>
     </row>
     <row r="21" spans="2:32">
@@ -13864,31 +13864,31 @@
       </c>
       <c r="R21" s="72">
         <f t="shared" si="11"/>
-        <v>-19575.49497</v>
+        <v>-13353.884969999999</v>
       </c>
       <c r="S21" s="72">
-        <f t="shared" si="11"/>
-        <v>-19575.49497</v>
+        <f t="shared" si="15"/>
+        <v>-12123.884969999999</v>
       </c>
       <c r="T21" s="72">
-        <f t="shared" si="11"/>
-        <v>-19575.49497</v>
+        <f t="shared" si="16"/>
+        <v>-11508.884969999999</v>
       </c>
       <c r="U21" s="72">
-        <f t="shared" si="11"/>
-        <v>-19575.49497</v>
+        <f t="shared" si="17"/>
+        <v>-10893.884969999999</v>
       </c>
       <c r="V21" s="72">
-        <f t="shared" si="11"/>
-        <v>-19575.49497</v>
+        <f t="shared" si="18"/>
+        <v>791.11503000000084</v>
       </c>
       <c r="W21" s="72">
-        <f t="shared" si="11"/>
-        <v>-19575.49497</v>
+        <f t="shared" si="19"/>
+        <v>-9663.8849699999992</v>
       </c>
       <c r="X21" s="72">
-        <f t="shared" si="11"/>
-        <v>-19575.49497</v>
+        <f t="shared" si="20"/>
+        <v>104111.11503</v>
       </c>
       <c r="Y21" s="72">
         <f t="shared" si="12"/>
@@ -13896,31 +13896,31 @@
       </c>
       <c r="Z21" s="72">
         <f t="shared" si="13"/>
-        <v>-19845.49497</v>
+        <v>-13623.884969999999</v>
       </c>
       <c r="AA21" s="72">
-        <f t="shared" si="15"/>
-        <v>-19845.49497</v>
+        <f t="shared" si="21"/>
+        <v>-12393.884969999999</v>
       </c>
       <c r="AB21" s="72">
-        <f t="shared" si="16"/>
-        <v>-19845.49497</v>
+        <f t="shared" si="22"/>
+        <v>-11778.884969999999</v>
       </c>
       <c r="AC21" s="72">
-        <f t="shared" si="17"/>
-        <v>-19845.49497</v>
+        <f t="shared" si="23"/>
+        <v>-11163.884969999999</v>
       </c>
       <c r="AD21" s="72">
-        <f t="shared" si="18"/>
-        <v>-19845.49497</v>
+        <f t="shared" si="24"/>
+        <v>521.11503000000084</v>
       </c>
       <c r="AE21" s="72">
-        <f t="shared" si="19"/>
-        <v>-19845.49497</v>
+        <f t="shared" si="25"/>
+        <v>-9933.8849699999992</v>
       </c>
       <c r="AF21" s="72">
-        <f t="shared" si="20"/>
-        <v>-19845.49497</v>
+        <f t="shared" si="26"/>
+        <v>103841.11503</v>
       </c>
     </row>
     <row r="22" spans="2:32">
@@ -13981,31 +13981,31 @@
       </c>
       <c r="R22" s="72">
         <f t="shared" si="11"/>
-        <v>-19882.99497</v>
+        <v>-13315.739969999999</v>
       </c>
       <c r="S22" s="72">
-        <f t="shared" si="11"/>
-        <v>-19882.99497</v>
+        <f t="shared" si="15"/>
+        <v>-12700.739969999999</v>
       </c>
       <c r="T22" s="72">
-        <f t="shared" si="11"/>
-        <v>-19882.99497</v>
+        <f t="shared" si="16"/>
+        <v>-12393.239969999999</v>
       </c>
       <c r="U22" s="72">
-        <f t="shared" si="11"/>
-        <v>-19882.99497</v>
+        <f t="shared" si="17"/>
+        <v>-12085.739969999999</v>
       </c>
       <c r="V22" s="72">
-        <f t="shared" si="11"/>
-        <v>-19882.99497</v>
+        <f t="shared" si="18"/>
+        <v>-6243.2399699999987</v>
       </c>
       <c r="W22" s="72">
-        <f t="shared" si="11"/>
-        <v>-19882.99497</v>
+        <f t="shared" si="19"/>
+        <v>-11470.739969999999</v>
       </c>
       <c r="X22" s="72">
-        <f t="shared" si="11"/>
-        <v>-19882.99497</v>
+        <f t="shared" si="20"/>
+        <v>45416.760030000005</v>
       </c>
       <c r="Y22" s="72">
         <f t="shared" si="12"/>
@@ -14013,31 +14013,31 @@
       </c>
       <c r="Z22" s="72">
         <f t="shared" si="13"/>
-        <v>-20017.99497</v>
+        <v>-13450.739969999999</v>
       </c>
       <c r="AA22" s="72">
-        <f t="shared" si="15"/>
-        <v>-20017.99497</v>
+        <f t="shared" si="21"/>
+        <v>-12835.739969999999</v>
       </c>
       <c r="AB22" s="72">
-        <f t="shared" si="16"/>
-        <v>-20017.99497</v>
+        <f t="shared" si="22"/>
+        <v>-12528.239969999999</v>
       </c>
       <c r="AC22" s="72">
-        <f t="shared" si="17"/>
-        <v>-20017.99497</v>
+        <f t="shared" si="23"/>
+        <v>-12220.739969999999</v>
       </c>
       <c r="AD22" s="72">
-        <f t="shared" si="18"/>
-        <v>-20017.99497</v>
+        <f t="shared" si="24"/>
+        <v>-6378.2399699999987</v>
       </c>
       <c r="AE22" s="72">
-        <f t="shared" si="19"/>
-        <v>-20017.99497</v>
+        <f t="shared" si="25"/>
+        <v>-11605.739969999999</v>
       </c>
       <c r="AF22" s="72">
-        <f t="shared" si="20"/>
-        <v>-20017.99497</v>
+        <f t="shared" si="26"/>
+        <v>45281.760030000005</v>
       </c>
     </row>
     <row r="23" spans="2:32">
@@ -17438,7 +17438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90328F7-7BC5-4ADE-B991-1AEE228E23E4}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
@@ -17866,31 +17866,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="14.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2653" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{139F38EE-581D-5E4B-8B75-D5BC4A2CC34F}"/>
+  <xr:revisionPtr revIDLastSave="2656" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF7BF119-7172-4847-813C-FAB075D865DB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="4" r:id="rId1"/>
@@ -1629,7 +1629,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4077,15 +4077,15 @@
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>6.4</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>6.4</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -4177,17 +4177,17 @@
       <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="104" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="104" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="104" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="30" t="s">
         <v>17</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
         <v>17</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="30" t="s">
         <v>17</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="30" t="s">
         <v>30</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="30" t="s">
         <v>30</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="30" t="s">
         <v>30</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="30" t="s">
         <v>30</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="30" t="s">
         <v>30</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="30" t="s">
         <v>30</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="30" t="s">
         <v>30</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="30" t="s">
         <v>30</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>30</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
         <v>31</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="30" t="s">
         <v>31</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="30" t="s">
         <v>31</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="30" t="s">
         <v>31</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="30" t="s">
         <v>31</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="30" t="s">
         <v>31</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="30" t="s">
         <v>31</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="30" t="s">
         <v>31</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="30" t="s">
         <v>31</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="30" t="s">
         <v>31</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="30" t="s">
         <v>31</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="30" t="s">
         <v>32</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="30" t="s">
         <v>32</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="30" t="s">
         <v>32</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="30" t="s">
         <v>32</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="30" t="s">
         <v>32</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="30" t="s">
         <v>32</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="30" t="s">
         <v>32</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="30" t="s">
         <v>32</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="30" t="s">
         <v>32</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="30" t="s">
         <v>32</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="30" t="s">
         <v>32</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="30" t="s">
         <v>33</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="30" t="s">
         <v>33</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="30" t="s">
         <v>33</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="30" t="s">
         <v>33</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="30" t="s">
         <v>33</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="30" t="s">
         <v>33</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="30" t="s">
         <v>33</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="30" t="s">
         <v>33</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="30" t="s">
         <v>33</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="30" t="s">
         <v>33</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="30" t="s">
         <v>33</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="30" t="s">
         <v>33</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="30" t="s">
         <v>34</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="30" t="s">
         <v>34</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="30" t="s">
         <v>34</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="30" t="s">
         <v>34</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="30" t="s">
         <v>34</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="30" t="s">
         <v>34</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="30" t="s">
         <v>34</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="30" t="s">
         <v>34</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="30" t="s">
         <v>34</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="30" t="s">
         <v>34</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="30" t="s">
         <v>34</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="30" t="s">
         <v>34</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="30" t="s">
         <v>35</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="30" t="s">
         <v>35</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="30" t="s">
         <v>35</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="30" t="s">
         <v>35</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="30" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="30" t="s">
         <v>35</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="30" t="s">
         <v>35</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="30" t="s">
         <v>35</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="30" t="s">
         <v>35</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="30" t="s">
         <v>35</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="30" t="s">
         <v>35</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="30" t="s">
         <v>35</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="30" t="s">
         <v>36</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="30" t="s">
         <v>36</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="30" t="s">
         <v>36</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="30" t="s">
         <v>37</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="30" t="s">
         <v>37</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="30" t="s">
         <v>37</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="30" t="s">
         <v>37</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="30" t="s">
         <v>37</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="30" t="s">
         <v>37</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="30" t="s">
         <v>37</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="30" t="s">
         <v>37</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="30" t="s">
         <v>37</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="30" t="s">
         <v>38</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="30" t="s">
         <v>38</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="30" t="s">
         <v>38</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="30" t="s">
         <v>38</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="30" t="s">
         <v>38</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="30" t="s">
         <v>38</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="30" t="s">
         <v>38</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="30" t="s">
         <v>38</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="30" t="s">
         <v>38</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="30" t="s">
         <v>38</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="30" t="s">
         <v>38</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="15.95" customHeight="1">
       <c r="A109" s="30" t="s">
         <v>38</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="215" t="s">
         <v>56</v>
       </c>
@@ -6066,67 +6066,67 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="1">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="1">
         <v>0.06</v>
       </c>
@@ -6145,25 +6145,25 @@
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -6194,7 +6194,7 @@
       <c r="AF1" s="153"/>
       <c r="AG1" s="153"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="161" t="s">
         <v>84</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="34"/>
       <c r="G3" s="66"/>
       <c r="I3" s="31">
@@ -6385,7 +6385,7 @@
         <v>35299.382639999996</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="35" t="s">
         <v>86</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>33004.382639999996</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="157" t="s">
         <v>88</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>30709.382639999996</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1">
       <c r="A6" s="154" t="s">
         <v>89</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>28414.38264</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1">
       <c r="I7" s="31">
         <v>1.6</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>26119.38264</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15.75" thickBot="1">
       <c r="A8" s="36" t="s">
         <v>90</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>23824.38264</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="39" t="s">
@@ -7045,7 +7045,7 @@
         <v>21529.382639999993</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="A10" s="41" t="s">
         <v>95</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>19234.38264</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33">
       <c r="B11" t="s">
         <v>96</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>16939.38264</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33">
       <c r="D12" s="44"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -7374,7 +7374,7 @@
         <v>14644.382640000007</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -7481,7 +7481,7 @@
         <v>12349.38264</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>10054.38264</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33">
       <c r="B15" s="41" t="s">
         <v>99</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>7759.3826399999998</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33">
       <c r="B16" t="s">
         <v>100</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>5464.3826399999962</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33">
       <c r="B17" t="s">
         <v>102</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>3169.3826399999998</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33">
       <c r="B18" t="s">
         <v>103</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>874.38263999999981</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33">
       <c r="B19" t="s">
         <v>105</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>-1420.6173600000002</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33">
       <c r="B20" s="51" t="s">
         <v>106</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>-3715.6173600000002</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33">
       <c r="B21" s="51" t="s">
         <v>107</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>-6010.6173600000002</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33">
       <c r="B22" s="51" t="s">
         <v>108</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>-8305.6173600000002</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33">
       <c r="B23" s="52" t="s">
         <v>109</v>
       </c>
@@ -8517,7 +8517,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33">
       <c r="B24" s="53" t="s">
         <v>110</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="G24" s="46"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33">
       <c r="B25" t="s">
         <v>112</v>
       </c>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="G25" s="50"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33">
       <c r="B26" t="s">
         <v>114</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="G26" s="46"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33">
       <c r="B27" t="s">
         <v>115</v>
       </c>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="G27" s="50"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33">
       <c r="B28" t="s">
         <v>116</v>
       </c>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="G28" s="50"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33">
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="G29" s="50"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33">
       <c r="B30" t="s">
         <v>118</v>
       </c>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="G30" s="46"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33">
       <c r="B31" t="s">
         <v>120</v>
       </c>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33">
       <c r="B32" t="s">
         <v>122</v>
       </c>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="G32" s="46"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="B33" t="s">
         <v>123</v>
       </c>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="B34" t="s">
         <v>124</v>
       </c>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="B35" t="s">
         <v>125</v>
       </c>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="G35" s="46"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="B36" t="s">
         <v>127</v>
       </c>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="G36" s="50"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="B37" t="s">
         <v>128</v>
       </c>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="G37" s="50"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="D38" s="44"/>
       <c r="E38" s="54">
         <f>SUM(F16:F37)</f>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="F38" s="43"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="B39" s="41" t="s">
         <v>129</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="E39" s="55"/>
       <c r="F39" s="43"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="B40" t="s">
         <v>130</v>
       </c>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="G40" s="46"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="B41" s="56" t="s">
         <v>131</v>
       </c>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="G41" s="50"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="B42" s="56" t="s">
         <v>133</v>
       </c>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="G42" s="50"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="B43" s="56" t="s">
         <v>134</v>
       </c>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="G43" s="50"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="B44" s="56" t="s">
         <v>135</v>
       </c>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="G44" s="50"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="B45" t="s">
         <v>137</v>
       </c>
@@ -8915,12 +8915,12 @@
       </c>
       <c r="G45" s="46"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="D46" s="44"/>
       <c r="E46" s="45"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1">
       <c r="A47" s="41" t="s">
         <v>139</v>
       </c>
@@ -8935,12 +8935,12 @@
       </c>
       <c r="G47" s="46"/>
     </row>
-    <row r="48" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" thickTop="1">
       <c r="D48" s="44"/>
       <c r="E48" s="45"/>
       <c r="F48" s="43"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="58" t="s">
         <v>140</v>
       </c>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="G49" s="50"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -8963,7 +8963,7 @@
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="E51" s="45"/>
       <c r="F51" s="43"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="B52" t="s">
         <v>142</v>
       </c>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="G52" s="46"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="B53" t="s">
         <v>143</v>
       </c>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="B54" t="s">
         <v>144</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="F54" s="43"/>
       <c r="G54" s="46"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="B55" t="s">
         <v>145</v>
       </c>
@@ -9038,14 +9038,14 @@
       </c>
       <c r="G55" s="50"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="B56" t="s">
         <v>146</v>
       </c>
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="D57" s="44"/>
       <c r="E57" s="45">
         <f>SUM(E52:E55)</f>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="F57" s="43"/>
     </row>
-    <row r="58" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="41" t="s">
         <v>147</v>
       </c>
@@ -9066,19 +9066,19 @@
       <c r="G58" s="46"/>
       <c r="H58" s="67"/>
     </row>
-    <row r="59" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" thickTop="1">
       <c r="D59" s="44"/>
       <c r="E59" s="45"/>
       <c r="F59" s="43"/>
       <c r="H59" s="67"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="D60" s="44"/>
       <c r="E60" s="45"/>
       <c r="F60" s="43"/>
       <c r="H60" s="67"/>
     </row>
-    <row r="61" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="41" t="s">
         <v>148</v>
       </c>
@@ -9091,13 +9091,13 @@
       <c r="G61" s="46"/>
       <c r="H61" s="67"/>
     </row>
-    <row r="62" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.75" thickTop="1">
       <c r="D62" s="44"/>
       <c r="E62" s="45"/>
       <c r="F62" s="43"/>
       <c r="H62" s="67"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="152" t="s">
         <v>149</v>
       </c>
@@ -9111,13 +9111,13 @@
       <c r="G63" s="46"/>
       <c r="H63" s="67"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="D64" s="44"/>
       <c r="E64" s="45"/>
       <c r="F64" s="43"/>
       <c r="H64" s="67"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -9136,13 +9136,13 @@
       </c>
       <c r="H65" s="67"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="D66" s="42"/>
       <c r="E66" s="43"/>
       <c r="F66" s="43"/>
       <c r="H66" s="67"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="58" t="s">
         <v>151</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="G67" s="50"/>
       <c r="H67" s="67"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="47"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
@@ -9166,30 +9166,30 @@
       <c r="F69" s="47"/>
       <c r="G69" s="47"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="151" t="s">
         <v>152</v>
       </c>
       <c r="B70" s="151"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="68"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="B74" s="32"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="B76" s="86"/>
       <c r="C76" s="32"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="C77" s="88"/>
       <c r="D77" s="88"/>
       <c r="E77" s="88"/>
       <c r="F77" s="88"/>
       <c r="G77" s="88"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="B78" s="89"/>
       <c r="C78" s="90"/>
       <c r="D78" s="90"/>
@@ -9197,7 +9197,7 @@
       <c r="F78" s="90"/>
       <c r="G78" s="90"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="B79" s="87"/>
       <c r="C79" s="90"/>
       <c r="D79" s="90"/>
@@ -9205,7 +9205,7 @@
       <c r="F79" s="90"/>
       <c r="G79" s="90"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="B80" s="89"/>
       <c r="C80" s="90"/>
       <c r="D80" s="90"/>
@@ -9213,7 +9213,7 @@
       <c r="F80" s="90"/>
       <c r="G80" s="90"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8">
       <c r="B81" s="87"/>
       <c r="C81" s="90"/>
       <c r="D81" s="90"/>
@@ -9221,7 +9221,7 @@
       <c r="F81" s="90"/>
       <c r="G81" s="90"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8">
       <c r="B82" s="52"/>
       <c r="C82" s="90"/>
       <c r="D82" s="90"/>
@@ -9229,7 +9229,7 @@
       <c r="F82" s="90"/>
       <c r="G82" s="90"/>
     </row>
-    <row r="83" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" ht="17.25">
       <c r="B83" s="87"/>
       <c r="C83" s="90"/>
       <c r="D83" s="90"/>
@@ -9237,7 +9237,7 @@
       <c r="F83" s="90"/>
       <c r="G83" s="90"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8">
       <c r="B84" s="89"/>
       <c r="C84" s="90"/>
       <c r="D84" s="90"/>
@@ -9245,7 +9245,7 @@
       <c r="F84" s="90"/>
       <c r="G84" s="90"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8">
       <c r="B85" s="87"/>
       <c r="C85" s="90"/>
       <c r="D85" s="90"/>
@@ -9253,7 +9253,7 @@
       <c r="F85" s="90"/>
       <c r="G85" s="90"/>
     </row>
-    <row r="86" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="17.25">
       <c r="B86" s="89"/>
       <c r="C86" s="90"/>
       <c r="D86" s="90"/>
@@ -9261,7 +9261,7 @@
       <c r="F86" s="90"/>
       <c r="G86" s="90"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8">
       <c r="B87" s="87"/>
       <c r="C87" s="90"/>
       <c r="D87" s="90"/>
@@ -9269,7 +9269,7 @@
       <c r="F87" s="90"/>
       <c r="G87" s="90"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8">
       <c r="B88" s="87"/>
       <c r="C88" s="90"/>
       <c r="D88" s="90"/>
@@ -9277,10 +9277,10 @@
       <c r="F88" s="90"/>
       <c r="G88" s="90"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8">
       <c r="H90" s="70"/>
     </row>
-    <row r="105" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:31">
       <c r="K105" s="43"/>
       <c r="L105" s="43"/>
       <c r="M105" s="43"/>
@@ -9303,7 +9303,7 @@
       <c r="AD105" s="43"/>
       <c r="AE105" s="43"/>
     </row>
-    <row r="106" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:31">
       <c r="K106" s="43"/>
       <c r="L106" s="43"/>
       <c r="M106" s="43"/>
@@ -9326,7 +9326,7 @@
       <c r="AD106" s="43"/>
       <c r="AE106" s="43"/>
     </row>
-    <row r="107" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:31">
       <c r="K107" s="43"/>
       <c r="L107" s="43"/>
       <c r="M107" s="43"/>
@@ -9349,7 +9349,7 @@
       <c r="AD107" s="43"/>
       <c r="AE107" s="43"/>
     </row>
-    <row r="108" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:31">
       <c r="K108" s="43"/>
       <c r="L108" s="43"/>
       <c r="M108" s="43"/>
@@ -9372,7 +9372,7 @@
       <c r="AD108" s="43"/>
       <c r="AE108" s="43"/>
     </row>
-    <row r="109" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="9:31">
       <c r="K109" s="43"/>
       <c r="L109" s="43"/>
       <c r="M109" s="43"/>
@@ -9395,7 +9395,7 @@
       <c r="AD109" s="43"/>
       <c r="AE109" s="43"/>
     </row>
-    <row r="110" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="9:31">
       <c r="I110" s="69"/>
       <c r="K110" s="43"/>
       <c r="L110" s="43"/>
@@ -9419,7 +9419,7 @@
       <c r="AD110" s="43"/>
       <c r="AE110" s="43"/>
     </row>
-    <row r="111" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="9:31">
       <c r="K111" s="43"/>
       <c r="L111" s="43"/>
       <c r="M111" s="43"/>
@@ -9442,7 +9442,7 @@
       <c r="AD111" s="43"/>
       <c r="AE111" s="43"/>
     </row>
-    <row r="112" spans="9:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="9:31">
       <c r="K112" s="43"/>
       <c r="L112" s="43"/>
       <c r="M112" s="43"/>
@@ -9465,7 +9465,7 @@
       <c r="AD112" s="43"/>
       <c r="AE112" s="43"/>
     </row>
-    <row r="113" spans="11:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="11:31">
       <c r="K113" s="43"/>
       <c r="L113" s="43"/>
       <c r="M113" s="43"/>
@@ -9488,7 +9488,7 @@
       <c r="AD113" s="43"/>
       <c r="AE113" s="43"/>
     </row>
-    <row r="114" spans="11:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="11:31">
       <c r="K114" s="43"/>
       <c r="L114" s="43"/>
       <c r="M114" s="43"/>
@@ -9511,7 +9511,7 @@
       <c r="AD114" s="43"/>
       <c r="AE114" s="43"/>
     </row>
-    <row r="115" spans="11:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="11:31">
       <c r="K115" s="43"/>
       <c r="L115" s="43"/>
       <c r="M115" s="43"/>
@@ -9534,7 +9534,7 @@
       <c r="AD115" s="43"/>
       <c r="AE115" s="43"/>
     </row>
-    <row r="116" spans="11:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="11:31">
       <c r="K116" s="43"/>
       <c r="L116" s="43"/>
       <c r="M116" s="43"/>
@@ -9557,7 +9557,7 @@
       <c r="AD116" s="43"/>
       <c r="AE116" s="43"/>
     </row>
-    <row r="117" spans="11:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="11:31">
       <c r="K117" s="43"/>
       <c r="L117" s="43"/>
       <c r="M117" s="43"/>
@@ -9580,7 +9580,7 @@
       <c r="AD117" s="43"/>
       <c r="AE117" s="43"/>
     </row>
-    <row r="118" spans="11:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="11:31">
       <c r="K118" s="43"/>
       <c r="L118" s="43"/>
       <c r="M118" s="43"/>
@@ -9603,7 +9603,7 @@
       <c r="AD118" s="43"/>
       <c r="AE118" s="43"/>
     </row>
-    <row r="119" spans="11:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="11:31">
       <c r="K119" s="43"/>
       <c r="L119" s="43"/>
       <c r="M119" s="43"/>
@@ -9652,32 +9652,32 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="75" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="75" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="11.6640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="11.6640625" style="75" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1640625" style="75"/>
+    <col min="6" max="6" width="10.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="75" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="11.7109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="11.7109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" ht="15.75" thickBot="1">
       <c r="R1" s="153" t="s">
         <v>149</v>
       </c>
@@ -9697,7 +9697,7 @@
       <c r="AE1" s="153"/>
       <c r="AF1" s="153"/>
     </row>
-    <row r="2" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:32">
       <c r="B2" s="171" t="s">
         <v>165</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:32">
       <c r="B3" s="174"/>
       <c r="C3" s="175"/>
       <c r="D3" s="175"/>
@@ -9887,7 +9887,7 @@
         <v>32459.50503</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" ht="15.75" thickBot="1">
       <c r="B4" s="177"/>
       <c r="C4" s="178"/>
       <c r="D4" s="178"/>
@@ -9993,7 +9993,7 @@
         <v>30172.650030000004</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" ht="15.75" thickBot="1">
       <c r="B5" s="76" t="s">
         <v>166</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>27885.795030000001</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:32">
       <c r="B6" s="79" t="s">
         <v>171</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>25598.940030000002</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:32">
       <c r="B7" s="79" t="s">
         <v>173</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>23312.085030000002</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:32">
       <c r="B8" s="79" t="s">
         <v>174</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>21025.230030000002</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:32">
       <c r="B9" s="79" t="s">
         <v>175</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>18738.375030000003</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:32">
       <c r="B10" s="79" t="s">
         <v>177</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>16451.52003</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:32">
       <c r="B11" s="79" t="s">
         <v>178</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>14164.665030000004</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:32">
       <c r="B12" s="79" t="s">
         <v>179</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>11877.810030000004</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:32">
       <c r="B13" s="79" t="s">
         <v>180</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>9590.955030000001</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:32">
       <c r="B14" s="79" t="s">
         <v>181</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>7304.1000300000014</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:32">
       <c r="B15" s="79" t="s">
         <v>182</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>5017.2450300000019</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:32">
       <c r="B16" s="79" t="s">
         <v>183</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>2730.3900300000023</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:32">
       <c r="B17" s="79" t="s">
         <v>184</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>443.53503000000092</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:32">
       <c r="B18" s="79" t="s">
         <v>185</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>-1843.3199699999986</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:32">
       <c r="B19" s="122" t="s">
         <v>186</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>-4130.1749699999982</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:32">
       <c r="B20" s="79" t="s">
         <v>187</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>-6417.0299699999978</v>
       </c>
     </row>
-    <row r="21" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:32">
       <c r="B21" s="79" t="s">
         <v>188</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>-8703.8849699999992</v>
       </c>
     </row>
-    <row r="22" spans="2:32" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:32">
       <c r="B22" s="79" t="s">
         <v>189</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>-10990.739969999999</v>
       </c>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:32">
       <c r="B23" s="79" t="s">
         <v>190</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>106.3638</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:32">
       <c r="B24" s="79" t="s">
         <v>191</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:32">
       <c r="B25" s="79" t="s">
         <v>192</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>258.06</v>
       </c>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:32">
       <c r="B26" s="122" t="s">
         <v>193</v>
       </c>
@@ -12152,7 +12152,7 @@
       </c>
       <c r="G26" s="83"/>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:32">
       <c r="B27" s="79" t="s">
         <v>194</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:32">
       <c r="B28" s="180" t="s">
         <v>241</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>14274.044969999999</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:32">
       <c r="B29" s="126" t="s">
         <v>242</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="30" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" ht="15.75" thickBot="1">
       <c r="B30" s="126" t="s">
         <v>240</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>15624.044969999999</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" ht="15.75" thickBot="1">
       <c r="B31" s="168" t="s">
         <v>195</v>
       </c>
@@ -12211,8 +12211,8 @@
       <c r="E31" s="169"/>
       <c r="F31" s="170"/>
     </row>
-    <row r="32" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:32" ht="15.75" thickBot="1"/>
+    <row r="33" spans="2:6">
       <c r="B33" s="133" t="s">
         <v>238</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6">
       <c r="B34" s="134" t="s">
         <v>235</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6">
       <c r="B35" s="134" t="s">
         <v>236</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6">
       <c r="B36" s="134" t="s">
         <v>243</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="15" customHeight="1" thickBot="1">
       <c r="B37" s="135" t="s">
         <v>237</v>
       </c>
@@ -12252,14 +12252,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" ht="15" customHeight="1" thickBot="1"/>
+    <row r="39" spans="2:6" ht="15" customHeight="1">
       <c r="B39" s="143" t="s">
         <v>290</v>
       </c>
       <c r="C39" s="144"/>
     </row>
-    <row r="40" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" ht="15.95" customHeight="1">
       <c r="B40" s="134" t="s">
         <v>287</v>
       </c>
@@ -12271,7 +12271,7 @@
       <c r="E40" s="182"/>
       <c r="F40" s="140"/>
     </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" ht="15" customHeight="1">
       <c r="B41" s="134" t="s">
         <v>288</v>
       </c>
@@ -12283,7 +12283,7 @@
       <c r="E41" s="141"/>
       <c r="F41" s="140"/>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="15.75" thickBot="1">
       <c r="B42" s="135" t="s">
         <v>289</v>
       </c>
@@ -12292,8 +12292,8 @@
         <v>365.95503000000099</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="44" spans="2:6">
       <c r="B44" s="183" t="s">
         <v>286</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6">
       <c r="B45" s="166" t="s">
         <v>291</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>16734.044969999999</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6">
       <c r="B46" s="166" t="s">
         <v>292</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>18084.044969999999</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6">
       <c r="B47" s="166" t="s">
         <v>293</v>
       </c>
@@ -12333,14 +12333,14 @@
         <v>15624.044969999999</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6">
       <c r="B48" s="166" t="s">
         <v>295</v>
       </c>
       <c r="C48" s="167"/>
       <c r="D48" s="149"/>
     </row>
-    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" ht="15.75" thickBot="1">
       <c r="B49" s="164" t="s">
         <v>294</v>
       </c>
@@ -12372,28 +12372,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA80ED9-C8EC-7D45-85C6-54945771733C}">
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="AF1" s="153"/>
       <c r="AG1" s="153"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="I2" s="28" t="s">
         <v>162</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="32" t="s">
         <v>196</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>20689.117019999998</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="158" t="s">
         <v>88</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>13173.63298</v>
       </c>
       <c r="S4" s="72">
-        <f t="shared" ref="S4:S22" si="11">K4-$R4</f>
+        <f t="shared" ref="S4:S21" si="11">K4-$R4</f>
         <v>9607.3670199999997</v>
       </c>
       <c r="T4" s="72">
@@ -12719,7 +12719,7 @@
         <v>19468.367019999998</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="151" t="s">
         <v>89</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>18247.617019999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="I6" s="31">
         <v>1.7</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>17026.867019999998</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="A7" s="32" t="s">
         <v>90</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>15806.117019999998</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="30">
       <c r="C8" s="39" t="s">
         <v>91</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>14585.367019999998</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="A9" s="41" t="s">
         <v>95</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>13364.61702</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="B10" t="s">
         <v>222</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>12143.867020000002</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33">
       <c r="D11" s="44"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
@@ -13475,7 +13475,7 @@
         <v>10923.11702</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -13583,7 +13583,7 @@
         <v>9702.3670199999997</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>8481.6170199999997</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33">
       <c r="B14" s="41" t="s">
         <v>99</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>7260.8670199999997</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33">
       <c r="B15" t="s">
         <v>100</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>6040.1170199999997</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33">
       <c r="B16" t="s">
         <v>200</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>4819.3670199999997</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33">
       <c r="B17" t="s">
         <v>103</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>3598.6170199999997</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33">
       <c r="B18" t="s">
         <v>201</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>2377.8670199999997</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33">
       <c r="B19" t="s">
         <v>202</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>1157.1170199999997</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33">
       <c r="B20" s="53" t="s">
         <v>203</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>-63.632980000000316</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33">
       <c r="B21" t="s">
         <v>204</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>-1284.3829800000003</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33">
       <c r="B22" t="s">
         <v>114</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>-2505.1329800000003</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33">
       <c r="B23" t="s">
         <v>115</v>
       </c>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="G23" s="50"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33">
       <c r="B24" t="s">
         <v>116</v>
       </c>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="G24" s="50"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33">
       <c r="B25" t="s">
         <v>117</v>
       </c>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="G25" s="50"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33">
       <c r="B26" t="s">
         <v>122</v>
       </c>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="G26" s="46"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33">
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -14824,7 +14824,7 @@
       </c>
       <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33">
       <c r="B28" t="s">
         <v>124</v>
       </c>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33">
       <c r="B29" t="s">
         <v>125</v>
       </c>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="G29" s="46"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33">
       <c r="B30" t="s">
         <v>127</v>
       </c>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="G30" s="50"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33">
       <c r="B31" t="s">
         <v>128</v>
       </c>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="G31" s="50"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33">
       <c r="D32" s="44"/>
       <c r="E32" s="45"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="B33" s="41" t="s">
         <v>129</v>
       </c>
@@ -14913,7 +14913,7 @@
       <c r="E33" s="55"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="B34" t="s">
         <v>205</v>
       </c>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="B35" s="56" t="s">
         <v>131</v>
       </c>
@@ -14951,7 +14951,7 @@
       </c>
       <c r="G35" s="50"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="B36" s="56" t="s">
         <v>133</v>
       </c>
@@ -14970,7 +14970,7 @@
       </c>
       <c r="G36" s="50"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="B37" s="56" t="s">
         <v>134</v>
       </c>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="G37" s="50"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="B38" s="56" t="s">
         <v>135</v>
       </c>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="G38" s="50"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="B39" t="s">
         <v>137</v>
       </c>
@@ -15029,12 +15029,12 @@
       </c>
       <c r="G39" s="46"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="D40" s="44"/>
       <c r="E40" s="45"/>
       <c r="F40" s="43"/>
     </row>
-    <row r="41" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1">
       <c r="A41" s="68" t="s">
         <v>139</v>
       </c>
@@ -15050,12 +15050,12 @@
       </c>
       <c r="G41" s="46"/>
     </row>
-    <row r="42" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" thickTop="1">
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="58" t="s">
         <v>140</v>
       </c>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="G43" s="50"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -15080,7 +15080,7 @@
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -15088,7 +15088,7 @@
       <c r="E45" s="45"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="B46" t="s">
         <v>142</v>
       </c>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="G46" s="46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="B47" t="s">
         <v>143</v>
       </c>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="G47" s="46"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="B48" t="s">
         <v>144</v>
       </c>
@@ -15136,7 +15136,7 @@
       <c r="F48" s="43"/>
       <c r="G48" s="46"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="B49" t="s">
         <v>145</v>
       </c>
@@ -15155,19 +15155,19 @@
       </c>
       <c r="G49" s="50"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>146</v>
       </c>
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="D51" s="44"/>
       <c r="E51" s="45"/>
       <c r="F51" s="43"/>
     </row>
-    <row r="52" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" thickBot="1">
       <c r="A52" s="68" t="s">
         <v>147</v>
       </c>
@@ -15181,17 +15181,17 @@
       </c>
       <c r="G52" s="46"/>
     </row>
-    <row r="53" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15.75" thickTop="1">
       <c r="D53" s="44"/>
       <c r="E53" s="45"/>
       <c r="F53" s="43"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="D54" s="44"/>
       <c r="E54" s="45"/>
       <c r="F54" s="43"/>
     </row>
-    <row r="55" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1">
       <c r="A55" s="68" t="s">
         <v>148</v>
       </c>
@@ -15205,12 +15205,12 @@
       </c>
       <c r="G55" s="46"/>
     </row>
-    <row r="56" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15.75" thickTop="1">
       <c r="D56" s="44"/>
       <c r="E56" s="45"/>
       <c r="F56" s="43"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="194" t="s">
         <v>149</v>
       </c>
@@ -15224,12 +15224,12 @@
       </c>
       <c r="G57" s="46"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="D58" s="44"/>
       <c r="E58" s="45"/>
       <c r="F58" s="43"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="32" t="s">
         <v>150</v>
       </c>
@@ -15248,12 +15248,12 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="D60" s="42"/>
       <c r="E60" s="43"/>
       <c r="F60" s="43"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="195" t="s">
         <v>151</v>
       </c>
@@ -15267,7 +15267,7 @@
       </c>
       <c r="G61" s="50"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
@@ -15276,14 +15276,14 @@
       <c r="F63" s="47"/>
       <c r="G63" s="47"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="151" t="s">
         <v>152</v>
       </c>
       <c r="B64" s="151"/>
     </row>
-    <row r="67" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="68" spans="2:7">
       <c r="B68" s="191" t="s">
         <v>206</v>
       </c>
@@ -15293,11 +15293,11 @@
       <c r="F68" s="192"/>
       <c r="G68" s="193"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7">
       <c r="B69" s="34"/>
       <c r="G69" s="66"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7">
       <c r="B70" s="92" t="s">
         <v>207</v>
       </c>
@@ -15309,7 +15309,7 @@
       <c r="F70" s="186"/>
       <c r="G70" s="187"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7">
       <c r="B71" s="93"/>
       <c r="C71" s="94">
         <f>E71*0.85</f>
@@ -15331,7 +15331,7 @@
         <v>16.099999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="B72" s="96" t="s">
         <v>209</v>
       </c>
@@ -15341,7 +15341,7 @@
       <c r="F72" s="90"/>
       <c r="G72" s="97"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7">
       <c r="B73" s="98">
         <f>B77*0.85</f>
         <v>926.5</v>
@@ -15367,7 +15367,7 @@
         <v>7306.5109999999968</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7">
       <c r="B74" s="96" t="s">
         <v>210</v>
       </c>
@@ -15377,7 +15377,7 @@
       <c r="F74" s="90"/>
       <c r="G74" s="99"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="B75" s="100">
         <f>B77*0.9</f>
         <v>981</v>
@@ -15403,7 +15403,7 @@
         <v>8039.5359999999982</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7">
       <c r="B76" s="101" t="s">
         <v>211</v>
       </c>
@@ -15413,7 +15413,7 @@
       <c r="F76" s="90"/>
       <c r="G76" s="99"/>
     </row>
-    <row r="77" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" ht="17.25">
       <c r="B77" s="100">
         <v>1090</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>9505.5859999999957</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7">
       <c r="B78" s="96" t="s">
         <v>212</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="F78" s="90"/>
       <c r="G78" s="99"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7">
       <c r="B79" s="100">
         <f>B77*1.1</f>
         <v>1199</v>
@@ -15474,7 +15474,7 @@
         <v>10971.635999999997</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7">
       <c r="B80" s="96" t="s">
         <v>213</v>
       </c>
@@ -15484,7 +15484,7 @@
       <c r="F80" s="90"/>
       <c r="G80" s="99"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="B81" s="98">
         <f>B77*1.15</f>
         <v>1253.5</v>
@@ -15510,7 +15510,7 @@
         <v>11704.660999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="B82" s="102"/>
       <c r="C82" s="103"/>
       <c r="D82" s="103"/>
@@ -15518,7 +15518,7 @@
       <c r="F82" s="103"/>
       <c r="G82" s="104"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="188" t="s">
         <v>214</v>
       </c>
@@ -15530,7 +15530,7 @@
       <c r="G85" s="189"/>
       <c r="H85" s="189"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="189"/>
       <c r="B86" s="189"/>
       <c r="C86" s="189"/>
@@ -15540,7 +15540,7 @@
       <c r="G86" s="189"/>
       <c r="H86" s="189"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="190" t="s">
         <v>215</v>
       </c>
@@ -15584,19 +15584,19 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>885</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>826</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>767</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>708</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>708</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>649</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>590</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>531</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>531</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>472</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>413</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>354</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>354</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>295</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>236</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>177</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>177</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>118</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>59</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>885</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>826</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>767</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>708</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>708</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>649</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>590</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>531</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>531</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>472</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>413</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>354</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>354</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>295</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>236</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>177</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>177</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>118</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>59</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>885</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>826</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>767</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>708</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>708</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>649</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>590</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>531</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>531</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>472</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>413</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>354</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>354</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>295</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>236</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>177</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>177</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>118</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>885</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>826</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>767</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>708</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>708</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>649</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>590</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>531</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>531</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>472</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>413</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>354</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>354</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>295</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>236</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>177</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>177</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>118</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>59</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>885</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>826</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>767</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>708</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>708</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>649</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>590</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>531</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>531</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>472</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>413</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>354</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>354</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>295</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>236</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>177</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>177</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>118</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>59</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>885</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>826</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>767</v>
       </c>
@@ -17809,7 +17809,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>708</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>708</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>649</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>590</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>531</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>531</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>472</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>413</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>354</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>354</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>295</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>236</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>177</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>177</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>59</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>885</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>826</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>767</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>708</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>708</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>649</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>590</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>531</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>531</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>472</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>413</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>354</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>354</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>295</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>236</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>177</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>177</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>118</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>59</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>885</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>826</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>767</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>708</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>708</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>649</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>590</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>531</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>531</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>472</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>413</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>354</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>354</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>295</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>236</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>177</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>177</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>118</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>59</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>885</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>826</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>767</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>708</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>708</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>649</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>590</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>531</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>531</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>472</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>413</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>354</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>354</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>295</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>236</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>177</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>177</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>118</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>59</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>885</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>826</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>767</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>708</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>708</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>649</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>590</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>531</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>531</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>472</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>413</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>354</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>354</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>295</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>236</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>177</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>177</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>118</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>59</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>885</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>826</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>767</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>708</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>708</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>649</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>590</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>531</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>531</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>472</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>413</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>354</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>354</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>295</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>236</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>177</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>177</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>118</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>59</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>885</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>826</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>767</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>708</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>708</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>649</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>590</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>531</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>531</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>472</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>413</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>354</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>354</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>295</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>236</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>177</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>177</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>118</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>59</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>885</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>826</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>767</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>708</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>708</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>649</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>590</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>531</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>531</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>472</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>413</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>354</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>354</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>295</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>236</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>177</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>177</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>118</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>59</v>
       </c>
@@ -21111,7 +21111,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -21157,7 +21157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>885</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>826</v>
       </c>
@@ -21197,7 +21197,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>767</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>708</v>
       </c>
@@ -21237,7 +21237,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>708</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>649</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>590</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>531</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>531</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>472</v>
       </c>
@@ -21357,7 +21357,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>413</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>354</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>354</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>295</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>236</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>177</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>177</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>118</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>59</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>0</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>885</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>826</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>767</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>708</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>708</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>649</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>590</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>531</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>531</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>472</v>
       </c>
@@ -21783,7 +21783,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>413</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>354</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>354</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>295</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>236</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>177</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>177</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>118</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>59</v>
       </c>
@@ -21963,7 +21963,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -21986,7 +21986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>885</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>826</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>767</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>708</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>708</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>649</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>590</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>531</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>531</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>472</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>413</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>354</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>354</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>295</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>236</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>177</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>177</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>118</v>
       </c>
@@ -22369,7 +22369,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>59</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -22451,19 +22451,19 @@
       <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="28" t="s">
         <v>67</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1534</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>1041584</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1416</v>
       </c>
@@ -22532,7 +22532,7 @@
         <v>937427</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1239</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>833269</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1062</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>729112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>944</v>
       </c>
@@ -22601,7 +22601,7 @@
         <v>624955</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>767</v>
       </c>
@@ -22624,7 +22624,7 @@
         <v>520797</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>590</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>416639</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>472</v>
       </c>
@@ -22670,7 +22670,7 @@
         <v>312481</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>295</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>208322</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>118</v>
       </c>
@@ -22716,7 +22716,7 @@
         <v>104178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1534</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>1079332</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>1416</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>971400</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>1239</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>863467</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>1062</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>755536</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>944</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>647604</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>767</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>539671</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>590</v>
       </c>
@@ -22900,7 +22900,7 @@
         <v>431739</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>472</v>
       </c>
@@ -22923,7 +22923,7 @@
         <v>323806</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>295</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>215872</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>118</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>107955</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>1534</v>
       </c>
@@ -23015,7 +23015,7 @@
         <v>1103970</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>1416</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>993574</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>1239</v>
       </c>
@@ -23061,7 +23061,7 @@
         <v>883178</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>1062</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>772783</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>944</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>662387</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>767</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>551991</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>590</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>441595</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>472</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>331198</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>295</v>
       </c>
@@ -23199,7 +23199,7 @@
         <v>220800</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>118</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>110425</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>1534</v>
       </c>
@@ -23268,7 +23268,7 @@
         <v>1103970</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>1416</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>993574</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>1239</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>883178</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>1062</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>772783</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>944</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>662387</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>767</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>551991</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>590</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>441595</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>472</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>331198</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>295</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>220800</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>118</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>110425</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>1534</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>1191939</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>1416</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>1072747</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>1239</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>953557</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>1062</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>834366</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>944</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>715174</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>767</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>595983</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>590</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>476790</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>472</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>357598</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>295</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>238404</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>118</v>
       </c>
@@ -23728,7 +23728,7 @@
         <v>119207</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>1534</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>1248455</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>1416</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>1123613</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>1239</v>
       </c>
@@ -23820,7 +23820,7 @@
         <v>998771</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>1062</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>873929</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>944</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>749086</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>767</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>624244</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>590</v>
       </c>
@@ -23912,7 +23912,7 @@
         <v>499399</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>472</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>374556</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>295</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>249710</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>118</v>
       </c>
@@ -23981,7 +23981,7 @@
         <v>124861</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -24004,7 +24004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>1534</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>1276318</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>1416</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>1148689</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>1239</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>1021061</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>1062</v>
       </c>
@@ -24096,7 +24096,7 @@
         <v>893433</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>944</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>765804</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>767</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>638176</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>590</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>510545</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>472</v>
       </c>
@@ -24188,7 +24188,7 @@
         <v>382916</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>295</v>
       </c>
@@ -24211,7 +24211,7 @@
         <v>255284</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>118</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>127648</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>1534</v>
       </c>
@@ -24280,7 +24280,7 @@
         <v>1276318</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>1416</v>
       </c>
@@ -24303,7 +24303,7 @@
         <v>1148689</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>1239</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>1021061</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>1062</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>893433</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>944</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>756804</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>767</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>638176</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>590</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>510545</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>472</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>382916</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>295</v>
       </c>
@@ -24464,7 +24464,7 @@
         <v>255284</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>118</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>127648</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -24510,7 +24510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>1534</v>
       </c>
@@ -24533,7 +24533,7 @@
         <v>1061913</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>1416</v>
       </c>
@@ -24556,7 +24556,7 @@
         <v>955723</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>1239</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>849533</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>1062</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>743343</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>944</v>
       </c>
@@ -24625,7 +24625,7 @@
         <v>637153</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>767</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>530962</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>590</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>424772</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>472</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>318581</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>295</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>212389</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>118</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>106211</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>1534</v>
       </c>
@@ -24786,7 +24786,7 @@
         <v>1051995</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>1416</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>946797</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>1239</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>841598</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>1062</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>736400</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>944</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>631201</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>767</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>526002</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>590</v>
       </c>
@@ -24924,7 +24924,7 @@
         <v>420804</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>472</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>315605</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>295</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>210405</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>118</v>
       </c>
@@ -24993,7 +24993,7 @@
         <v>105222</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>1534</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>1142294</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>1416</v>
       </c>
@@ -25062,7 +25062,7 @@
         <v>1028066</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>1239</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>913837</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>1062</v>
       </c>
@@ -25108,7 +25108,7 @@
         <v>799610</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>944</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>685382</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>767</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>571153</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>590</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>456925</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>472</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>342696</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>295</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>228466</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>118</v>
       </c>
@@ -25246,7 +25246,7 @@
         <v>114255</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>1534</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>1059871</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>1416</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>953855</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>1239</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>847899</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>1062</v>
       </c>
@@ -25361,7 +25361,7 @@
         <v>741913</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>944</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>635927</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>767</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>529940</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>590</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>423954</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>472</v>
       </c>
@@ -25453,7 +25453,7 @@
         <v>317967</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>295</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>211980</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>118</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>123031</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>1534</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>1220963</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>1416</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>1098869</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>1239</v>
       </c>
@@ -25591,7 +25591,7 @@
         <v>976777</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>1062</v>
       </c>
@@ -25614,7 +25614,7 @@
         <v>854685</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>944</v>
       </c>
@@ -25637,7 +25637,7 @@
         <v>732592</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>767</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>610499</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>590</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>488404</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>472</v>
       </c>
@@ -25706,7 +25706,7 @@
         <v>366310</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>295</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>244213</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>118</v>
       </c>
@@ -25752,7 +25752,7 @@
         <v>122113</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>1534</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>1213721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>1416</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>1092352</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>1239</v>
       </c>
@@ -25844,7 +25844,7 @@
         <v>970983</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>1062</v>
       </c>
@@ -25867,7 +25867,7 @@
         <v>849615</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>944</v>
       </c>
@@ -25890,7 +25890,7 @@
         <v>728245</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>767</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>606876</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>590</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>485505</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>472</v>
       </c>
@@ -25959,7 +25959,7 @@
         <v>364135</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>295</v>
       </c>
@@ -25982,7 +25982,7 @@
         <v>242763</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>118</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>121387</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>1534</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>1321293</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>1416</v>
       </c>
@@ -26074,7 +26074,7 @@
         <v>1189167</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>1239</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>1057042</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>1062</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>924917</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>944</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>792791</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>767</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>660666</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>590</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>528537</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>472</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>396411</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>295</v>
       </c>
@@ -26235,7 +26235,7 @@
         <v>264281</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>118</v>
       </c>
@@ -26258,7 +26258,7 @@
         <v>132148</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>1534</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>1230166</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>1416</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>1107152</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>1239</v>
       </c>
@@ -26350,7 +26350,7 @@
         <v>984139</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>1062</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>861125</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>944</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>738111</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>767</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>615098</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>590</v>
       </c>
@@ -26442,7 +26442,7 @@
         <v>492082</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>472</v>
       </c>
@@ -26465,7 +26465,7 @@
         <v>369068</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>295</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>246051</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>118</v>
       </c>
@@ -26511,7 +26511,7 @@
         <v>106008</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -26547,38 +26547,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="14.1640625" style="1"/>
+    <col min="21" max="21" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="14.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="F1" s="153" t="s">
         <v>44</v>
       </c>
@@ -26598,7 +26599,7 @@
       </c>
       <c r="S1" s="196"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -26663,7 +26664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26742,7 +26743,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -26821,7 +26822,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -26900,7 +26901,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -26979,7 +26980,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -27058,7 +27059,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -27137,7 +27138,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -27216,7 +27217,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -27295,7 +27296,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -27374,7 +27375,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -27453,7 +27454,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -27532,7 +27533,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -27611,7 +27612,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -27690,7 +27691,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -27769,7 +27770,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -27848,7 +27849,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -27927,7 +27928,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -28006,7 +28007,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -28085,7 +28086,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -28163,7 +28164,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -28241,7 +28242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -28319,8 +28320,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="H24" s="2"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="L26" s="1">
+        <f>208.75/13.5</f>
+        <v>15.462962962962964</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28340,25 +28347,25 @@
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
       <c r="A1" s="205" t="s">
         <v>11</v>
       </c>
@@ -28371,7 +28378,7 @@
       <c r="H1" s="206"/>
       <c r="I1" s="207"/>
     </row>
-    <row r="2" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
       <c r="A2" s="22"/>
       <c r="B2" s="209" t="s">
         <v>46</v>
@@ -28384,7 +28391,7 @@
       <c r="H2" s="211"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" s="24"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -28409,7 +28416,7 @@
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="212" t="s">
         <v>45</v>
       </c>
@@ -28430,7 +28437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="213"/>
       <c r="B5" s="11"/>
       <c r="C5" s="208"/>
@@ -28443,7 +28450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="213"/>
       <c r="B6" s="11"/>
       <c r="C6" s="208"/>
@@ -28462,7 +28469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="213"/>
       <c r="B7" s="11"/>
       <c r="C7" s="208"/>
@@ -28484,7 +28491,7 @@
         <v>35801</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="213"/>
       <c r="B8" s="11"/>
       <c r="C8" s="208"/>
@@ -28506,7 +28513,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="213"/>
       <c r="B9" s="11"/>
       <c r="C9" s="208"/>
@@ -28528,7 +28535,7 @@
         <v>36117</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="213"/>
       <c r="B10" s="11"/>
       <c r="C10" s="208"/>
@@ -28550,7 +28557,7 @@
         <v>36525</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="213"/>
       <c r="B11" s="11"/>
       <c r="C11" s="208"/>
@@ -28563,7 +28570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="213"/>
       <c r="B12" s="11"/>
       <c r="C12" s="208"/>
@@ -28576,7 +28583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="213"/>
       <c r="B13" s="11"/>
       <c r="C13" s="208"/>
@@ -28589,7 +28596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="213"/>
       <c r="B14" s="11"/>
       <c r="C14" s="208"/>
@@ -28602,7 +28609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="213"/>
       <c r="B15" s="11"/>
       <c r="C15" s="208"/>
@@ -28615,7 +28622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="213"/>
       <c r="B16" s="11"/>
       <c r="C16" s="208"/>
@@ -28628,7 +28635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="213"/>
       <c r="B17" s="11"/>
       <c r="C17" s="208"/>
@@ -28641,7 +28648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="213"/>
       <c r="B18" s="11"/>
       <c r="C18" s="208"/>
@@ -28654,7 +28661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
       <c r="A19" s="214"/>
       <c r="B19" s="15"/>
       <c r="C19" s="208"/>
@@ -28667,7 +28674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="26"/>
       <c r="B20" s="19" t="s">
         <v>2</v>
@@ -28686,7 +28693,7 @@
       </c>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="200" t="s">
         <v>12</v>
       </c>
@@ -28699,7 +28706,7 @@
       <c r="H21" s="201"/>
       <c r="I21" s="202"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="203" t="s">
         <v>9</v>
       </c>
@@ -28712,7 +28719,7 @@
       <c r="H22" s="153"/>
       <c r="I22" s="204"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="203" t="s">
         <v>10</v>
       </c>
@@ -28725,7 +28732,7 @@
       <c r="H23" s="153"/>
       <c r="I23" s="204"/>
     </row>
-    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" s="197" t="s">
         <v>13</v>
       </c>
@@ -28738,7 +28745,7 @@
       <c r="H24" s="198"/>
       <c r="I24" s="199"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="D27" s="3"/>
     </row>
   </sheetData>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2CA59B8-B1AA-1A4B-896B-2B4808B82835}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFCE8AC7-35FF-0F44-B680-8DA2D24FDF74}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -2334,6 +2334,14 @@
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2397,6 +2405,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2454,42 +2486,6 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2503,6 +2499,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2534,6 +2533,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2598,14 +2606,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2621,6 +2621,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7753,38 +7757,38 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="52"/>
-      <c r="S1" s="214" t="s">
+      <c r="S1" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
       <c r="Z1" s="52"/>
-      <c r="AA1" s="214" t="s">
+      <c r="AA1" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="214"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="214"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="218"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218" t="s">
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="219"/>
+      <c r="G2" s="223"/>
       <c r="I2" s="46" t="s">
         <v>86</v>
       </c>
@@ -7968,14 +7972,14 @@
       <c r="A4" s="162" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="217" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
       <c r="I4" s="46">
         <v>1.9</v>
       </c>
@@ -8077,15 +8081,15 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="227" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="227"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="231"/>
       <c r="I5" s="46">
         <v>1.8</v>
       </c>
@@ -8187,15 +8191,15 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="211"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="215"/>
       <c r="I6" s="46">
         <v>1.7</v>
       </c>
@@ -10677,10 +10681,10 @@
       <c r="H62" s="180"/>
     </row>
     <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="212" t="s">
+      <c r="A63" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="212"/>
+      <c r="B63" s="216"/>
       <c r="D63" s="61"/>
       <c r="E63" s="62"/>
       <c r="F63" s="60">
@@ -10747,10 +10751,10 @@
       <c r="G69" s="65"/>
     </row>
     <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="213" t="s">
+      <c r="A70" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="213"/>
+      <c r="B70" s="217"/>
     </row>
     <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11275,60 +11279,62 @@
   </sheetPr>
   <dimension ref="B1:AF49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="119" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="120" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="11.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="11.1640625" style="77" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.83203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="11.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="11.1640625" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R1" s="214" t="s">
+      <c r="R1" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="214"/>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Z1" s="214" t="s">
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Z1" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="214"/>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="214"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
+      <c r="AA1" s="218"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="218"/>
     </row>
     <row r="2" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="240" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="231"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="243"/>
       <c r="H2" s="45" t="s">
         <v>86</v>
       </c>
@@ -11406,11 +11412,11 @@
       </c>
     </row>
     <row r="3" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="232"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="235"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="247"/>
       <c r="H3" s="46">
         <v>2</v>
       </c>
@@ -11512,11 +11518,11 @@
       </c>
     </row>
     <row r="4" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="236"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="239"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="251"/>
       <c r="H4" s="46">
         <v>1.9</v>
       </c>
@@ -13785,12 +13791,12 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="240" t="s">
+      <c r="B28" s="252" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="242"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="253"/>
+      <c r="E28" s="254"/>
       <c r="F28" s="136">
         <f>F26+F27</f>
         <v>14274.044969999999</v>
@@ -13827,13 +13833,13 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="243" t="s">
+      <c r="B31" s="255" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="245"/>
-      <c r="F31" s="246"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="257"/>
+      <c r="F31" s="258"/>
     </row>
     <row r="32" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13891,8 +13897,8 @@
         <f>C33*6</f>
         <v>18450</v>
       </c>
-      <c r="D40" s="251"/>
-      <c r="E40" s="252"/>
+      <c r="D40" s="236"/>
+      <c r="E40" s="237"/>
       <c r="F40" s="150"/>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13918,61 +13924,66 @@
     </row>
     <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="238" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="254"/>
+      <c r="C44" s="239"/>
       <c r="D44" s="154">
         <f>$C$33*$C$35</f>
         <v>2460</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="232" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="248"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="155">
         <f>D44+F28</f>
         <v>16734.044969999999</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="247" t="s">
+      <c r="B46" s="232" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="248"/>
+      <c r="C46" s="233"/>
       <c r="D46" s="155">
         <f>D45+F29</f>
         <v>18084.044969999999</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="247" t="s">
+      <c r="B47" s="232" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="248"/>
+      <c r="C47" s="233"/>
       <c r="D47" s="156">
         <f>D46-D44</f>
         <v>15624.044969999999</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="247" t="s">
+      <c r="B48" s="232" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="248"/>
+      <c r="C48" s="233"/>
       <c r="D48" s="157"/>
     </row>
     <row r="49" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="249" t="s">
+      <c r="B49" s="234" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="250"/>
+      <c r="C49" s="235"/>
       <c r="D49" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D40:E40"/>
@@ -13980,11 +13991,6 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14034,25 +14040,25 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="52"/>
-      <c r="S1" s="214" t="s">
+      <c r="S1" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
       <c r="Z1" s="52"/>
-      <c r="AA1" s="214" t="s">
+      <c r="AA1" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="214"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="214"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="218"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I2" s="45" t="s">
@@ -14239,10 +14245,10 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="228" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="255"/>
+      <c r="B4" s="275"/>
       <c r="I4" s="46">
         <v>1.9</v>
       </c>
@@ -14344,10 +14350,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="256"/>
+      <c r="B5" s="264"/>
       <c r="I5" s="46">
         <v>1.8</v>
       </c>
@@ -16835,10 +16841,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="257" t="s">
+      <c r="A57" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="258"/>
+      <c r="B57" s="277"/>
       <c r="C57" s="86"/>
       <c r="D57" s="87"/>
       <c r="E57" s="78"/>
@@ -16902,23 +16908,23 @@
       <c r="G63" s="67"/>
     </row>
     <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="213" t="s">
+      <c r="A64" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="256"/>
+      <c r="B64" s="264"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="264" t="s">
+      <c r="B68" s="265" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="265"/>
-      <c r="D68" s="265"/>
-      <c r="E68" s="265"/>
-      <c r="F68" s="265"/>
-      <c r="G68" s="266"/>
+      <c r="C68" s="266"/>
+      <c r="D68" s="266"/>
+      <c r="E68" s="266"/>
+      <c r="F68" s="266"/>
+      <c r="G68" s="267"/>
     </row>
     <row r="69" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="101"/>
@@ -16928,13 +16934,13 @@
       <c r="B70" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="267" t="s">
+      <c r="C70" s="268" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="268"/>
-      <c r="E70" s="268"/>
-      <c r="F70" s="268"/>
-      <c r="G70" s="269"/>
+      <c r="D70" s="269"/>
+      <c r="E70" s="269"/>
+      <c r="F70" s="269"/>
+      <c r="G70" s="270"/>
     </row>
     <row r="71" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="104"/>
@@ -17148,16 +17154,16 @@
     <row r="83" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:33" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="270" t="s">
+      <c r="A85" s="271" t="s">
         <v>180</v>
       </c>
-      <c r="B85" s="271"/>
-      <c r="C85" s="272"/>
-      <c r="D85" s="272"/>
-      <c r="E85" s="272"/>
-      <c r="F85" s="272"/>
-      <c r="G85" s="272"/>
-      <c r="H85" s="273"/>
+      <c r="B85" s="272"/>
+      <c r="C85" s="273"/>
+      <c r="D85" s="273"/>
+      <c r="E85" s="273"/>
+      <c r="F85" s="273"/>
+      <c r="G85" s="273"/>
+      <c r="H85" s="274"/>
       <c r="I85" s="116"/>
       <c r="J85" s="117"/>
       <c r="K85" s="117"/>
@@ -17185,14 +17191,14 @@
       <c r="AG85" s="118"/>
     </row>
     <row r="86" spans="1:33" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="273"/>
-      <c r="B86" s="271"/>
-      <c r="C86" s="272"/>
-      <c r="D86" s="272"/>
-      <c r="E86" s="272"/>
-      <c r="F86" s="272"/>
-      <c r="G86" s="272"/>
-      <c r="H86" s="273"/>
+      <c r="A86" s="274"/>
+      <c r="B86" s="272"/>
+      <c r="C86" s="273"/>
+      <c r="D86" s="273"/>
+      <c r="E86" s="273"/>
+      <c r="F86" s="273"/>
+      <c r="G86" s="273"/>
+      <c r="H86" s="274"/>
       <c r="I86" s="116"/>
       <c r="J86" s="117"/>
       <c r="K86" s="117"/>
@@ -17233,17 +17239,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A87:H87"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="C70:G70"/>
     <mergeCell ref="A85:H86"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26077,24 +26083,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="274" t="s">
+      <c r="F1" s="278" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
+      <c r="M1" s="280"/>
+      <c r="N1" s="280"/>
+      <c r="O1" s="280"/>
       <c r="P1" s="196"/>
       <c r="Q1" s="196"/>
-      <c r="R1" s="277" t="s">
+      <c r="R1" s="281" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="277"/>
+      <c r="S1" s="281"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="195" t="s">
@@ -27836,7 +27842,7 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -27860,29 +27866,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="290" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="288"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="292"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="285"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="289"/>
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -27911,19 +27917,19 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="293" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="292" t="s">
+      <c r="C4" s="296" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="27"/>
-      <c r="E4" s="292" t="s">
+      <c r="E4" s="296" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="27"/>
-      <c r="G4" s="292" t="s">
+      <c r="G4" s="296" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="28"/>
@@ -27932,48 +27938,48 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="290"/>
+      <c r="A5" s="294"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="293"/>
+      <c r="C5" s="297"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="293"/>
+      <c r="E5" s="297"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="293"/>
+      <c r="G5" s="297"/>
       <c r="H5" s="33"/>
       <c r="I5" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="290"/>
+      <c r="A6" s="294"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="293"/>
+      <c r="C6" s="297"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="293"/>
+      <c r="E6" s="297"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="293"/>
+      <c r="G6" s="297"/>
       <c r="H6" s="33"/>
       <c r="I6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="295" t="s">
+      <c r="S6" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="297" t="s">
+      <c r="T6" s="209" t="s">
         <v>295</v>
       </c>
-      <c r="U6" s="298" t="s">
+      <c r="U6" s="210" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="290"/>
+      <c r="A7" s="294"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="293"/>
+      <c r="C7" s="297"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="293"/>
+      <c r="E7" s="297"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="293"/>
+      <c r="G7" s="297"/>
       <c r="H7" s="33"/>
       <c r="I7" s="30" t="s">
         <v>49</v>
@@ -27981,7 +27987,7 @@
       <c r="S7" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="296">
+      <c r="T7" s="208">
         <v>35801</v>
       </c>
       <c r="U7" s="202">
@@ -27989,13 +27995,13 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="290"/>
+      <c r="A8" s="294"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="293"/>
+      <c r="C8" s="297"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="293"/>
+      <c r="E8" s="297"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="293"/>
+      <c r="G8" s="297"/>
       <c r="H8" s="33"/>
       <c r="I8" s="30" t="s">
         <v>49</v>
@@ -28003,7 +28009,7 @@
       <c r="S8" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="296">
+      <c r="T8" s="208">
         <v>35223</v>
       </c>
       <c r="U8" s="202">
@@ -28011,13 +28017,13 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="290"/>
+      <c r="A9" s="294"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="293"/>
+      <c r="C9" s="297"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="293"/>
+      <c r="E9" s="297"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="293"/>
+      <c r="G9" s="297"/>
       <c r="H9" s="33"/>
       <c r="I9" s="30" t="s">
         <v>49</v>
@@ -28025,7 +28031,7 @@
       <c r="S9" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="296">
+      <c r="T9" s="208">
         <v>36117</v>
       </c>
       <c r="U9" s="202">
@@ -28033,13 +28039,13 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="290"/>
+      <c r="A10" s="294"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="293"/>
+      <c r="C10" s="297"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="293"/>
+      <c r="E10" s="297"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="293"/>
+      <c r="G10" s="297"/>
       <c r="H10" s="33"/>
       <c r="I10" s="30" t="s">
         <v>49</v>
@@ -28047,7 +28053,7 @@
       <c r="S10" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="296">
+      <c r="T10" s="208">
         <v>36525</v>
       </c>
       <c r="U10" s="202">
@@ -28055,117 +28061,117 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="290"/>
+      <c r="A11" s="294"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="293"/>
+      <c r="C11" s="297"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="293"/>
+      <c r="E11" s="297"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="293"/>
+      <c r="G11" s="297"/>
       <c r="H11" s="33"/>
       <c r="I11" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="290"/>
+      <c r="A12" s="294"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="293"/>
+      <c r="C12" s="297"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="293"/>
+      <c r="E12" s="297"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="293"/>
+      <c r="G12" s="297"/>
       <c r="H12" s="33"/>
       <c r="I12" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="290"/>
+      <c r="A13" s="294"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="293"/>
+      <c r="C13" s="297"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="293"/>
+      <c r="E13" s="297"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="293"/>
+      <c r="G13" s="297"/>
       <c r="H13" s="33"/>
       <c r="I13" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="290"/>
+      <c r="A14" s="294"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="293"/>
+      <c r="C14" s="297"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="293"/>
+      <c r="E14" s="297"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="293"/>
+      <c r="G14" s="297"/>
       <c r="H14" s="33"/>
       <c r="I14" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="290"/>
+      <c r="A15" s="294"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="293"/>
+      <c r="C15" s="297"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="293"/>
+      <c r="E15" s="297"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="293"/>
+      <c r="G15" s="297"/>
       <c r="H15" s="33"/>
       <c r="I15" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="290"/>
+      <c r="A16" s="294"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="293"/>
+      <c r="C16" s="297"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="293"/>
+      <c r="E16" s="297"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="293"/>
+      <c r="G16" s="297"/>
       <c r="H16" s="33"/>
       <c r="I16" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="290"/>
+      <c r="A17" s="294"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="293"/>
+      <c r="C17" s="297"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="293"/>
+      <c r="E17" s="297"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="293"/>
+      <c r="G17" s="297"/>
       <c r="H17" s="33"/>
       <c r="I17" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="290"/>
+      <c r="A18" s="294"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="293"/>
+      <c r="C18" s="297"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="293"/>
+      <c r="E18" s="297"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="293"/>
+      <c r="G18" s="297"/>
       <c r="H18" s="33"/>
       <c r="I18" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="291"/>
+      <c r="A19" s="295"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="293"/>
+      <c r="C19" s="297"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="293"/>
+      <c r="E19" s="297"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="293"/>
+      <c r="G19" s="297"/>
       <c r="H19" s="39"/>
       <c r="I19" s="36" t="s">
         <v>49</v>
@@ -28191,56 +28197,56 @@
       <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="278" t="s">
+      <c r="A21" s="282" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="279"/>
-      <c r="C21" s="279"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="280"/>
+      <c r="B21" s="283"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="283"/>
+      <c r="I21" s="284"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="281" t="s">
+      <c r="A22" s="285" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="257"/>
-      <c r="C22" s="257"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="282"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="276"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="276"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="276"/>
+      <c r="I22" s="286"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="281" t="s">
+      <c r="A23" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="257"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="282"/>
+      <c r="B23" s="276"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="286"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="283" t="s">
+      <c r="A24" s="287" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="284"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="284"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="284"/>
-      <c r="H24" s="284"/>
-      <c r="I24" s="285"/>
+      <c r="B24" s="288"/>
+      <c r="C24" s="288"/>
+      <c r="D24" s="288"/>
+      <c r="E24" s="288"/>
+      <c r="F24" s="288"/>
+      <c r="G24" s="288"/>
+      <c r="H24" s="288"/>
+      <c r="I24" s="289"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30136,11 +30142,11 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="212" t="s">
+      <c r="A110" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="212"/>
-      <c r="C110" s="294"/>
+      <c r="B110" s="216"/>
+      <c r="C110" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="1">
